--- a/WIP__translation_dictionary.xlsx
+++ b/WIP__translation_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ldmay/Box Sync/Documents/MADC_Data_Unification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357920B9-E0A7-4F4B-A694-E5545C97ACE3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15324F0C-4408-E24B-8A82-937A6490BB6C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="17540" xr2:uid="{35E1C540-DD7A-FA43-A99D-8F94692F3DD6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="23540" xr2:uid="{35E1C540-DD7A-FA43-A99D-8F94692F3DD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3471" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3315" uniqueCount="642">
   <si>
     <t>form_u31</t>
   </si>
@@ -1952,124 +1952,7 @@
     <t>kid15ago</t>
   </si>
   <si>
-    <t>note_a3_1</t>
-  </si>
-  <si>
-    <t>note_a3_2</t>
-  </si>
-  <si>
-    <t>note_a3_3</t>
-  </si>
-  <si>
-    <t>note_a3_4</t>
-  </si>
-  <si>
-    <t>note_a3_5</t>
-  </si>
-  <si>
-    <t>note_a3_6</t>
-  </si>
-  <si>
-    <t>note_a3_7</t>
-  </si>
-  <si>
-    <t>note_a3_8</t>
-  </si>
-  <si>
-    <t>note_a3_9</t>
-  </si>
-  <si>
     <t>sib6neu</t>
-  </si>
-  <si>
-    <t>note_a3_10</t>
-  </si>
-  <si>
-    <t>note_a3_11</t>
-  </si>
-  <si>
-    <t>note_a3_12</t>
-  </si>
-  <si>
-    <t>note_a3_13</t>
-  </si>
-  <si>
-    <t>note_a3_14</t>
-  </si>
-  <si>
-    <t>note_a3_15</t>
-  </si>
-  <si>
-    <t>note_a3_16</t>
-  </si>
-  <si>
-    <t>note_a3_17</t>
-  </si>
-  <si>
-    <t>note_a3_18</t>
-  </si>
-  <si>
-    <t>note_a3_19</t>
-  </si>
-  <si>
-    <t>note_a3_20</t>
-  </si>
-  <si>
-    <t>note_a3_21</t>
-  </si>
-  <si>
-    <t>note_a3_22</t>
-  </si>
-  <si>
-    <t>note_a3_23</t>
-  </si>
-  <si>
-    <t>note_a3_24</t>
-  </si>
-  <si>
-    <t>note_a3_25</t>
-  </si>
-  <si>
-    <t>note_a3_26</t>
-  </si>
-  <si>
-    <t>note_a3_27</t>
-  </si>
-  <si>
-    <t>note_a3_28</t>
-  </si>
-  <si>
-    <t>note_a3_29</t>
-  </si>
-  <si>
-    <t>note_a3_30</t>
-  </si>
-  <si>
-    <t>note_a3_31</t>
-  </si>
-  <si>
-    <t>note_a3_32</t>
-  </si>
-  <si>
-    <t>note_a3_33</t>
-  </si>
-  <si>
-    <t>note_a3_34</t>
-  </si>
-  <si>
-    <t>note_a3_35</t>
-  </si>
-  <si>
-    <t>note_a3_36</t>
-  </si>
-  <si>
-    <t>note_a3_37</t>
-  </si>
-  <si>
-    <t>note_a3_38</t>
-  </si>
-  <si>
-    <t>note_a3_39</t>
   </si>
   <si>
     <t>ivp_a3_complete</t>
@@ -2134,3228 +2017,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="322">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5665,11 +2327,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE876574-F5A4-7C48-BC15-5FEB63248101}">
-  <dimension ref="A1:J640"/>
+  <dimension ref="A1:J601"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C370" sqref="C370"/>
+      <pane ySplit="1" topLeftCell="A585" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A606" sqref="A606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7738,7 +4400,7 @@
         <v>123</v>
       </c>
       <c r="F87" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G87" t="s">
         <v>13</v>
@@ -7834,7 +4496,7 @@
         <v>129</v>
       </c>
       <c r="F93" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G93" t="s">
         <v>13</v>
@@ -7860,7 +4522,7 @@
         <v>130</v>
       </c>
       <c r="F94" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G94" t="s">
         <v>13</v>
@@ -7956,7 +4618,7 @@
         <v>136</v>
       </c>
       <c r="F100" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G100" t="s">
         <v>13</v>
@@ -8024,7 +4686,7 @@
         <v>140</v>
       </c>
       <c r="F104" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G104" t="s">
         <v>13</v>
@@ -8064,7 +4726,7 @@
         <v>142</v>
       </c>
       <c r="F106" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G106" t="s">
         <v>13</v>
@@ -8160,7 +4822,7 @@
         <v>148</v>
       </c>
       <c r="F112" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G112" t="s">
         <v>13</v>
@@ -8256,7 +4918,7 @@
         <v>154</v>
       </c>
       <c r="F118" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G118" t="s">
         <v>13</v>
@@ -8352,7 +5014,7 @@
         <v>160</v>
       </c>
       <c r="F124" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G124" t="s">
         <v>13</v>
@@ -8448,7 +5110,7 @@
         <v>166</v>
       </c>
       <c r="F130" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G130" t="s">
         <v>13</v>
@@ -8544,7 +5206,7 @@
         <v>172</v>
       </c>
       <c r="F136" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G136" t="s">
         <v>13</v>
@@ -8640,7 +5302,7 @@
         <v>178</v>
       </c>
       <c r="F142" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G142" t="s">
         <v>13</v>
@@ -8722,7 +5384,7 @@
         <v>183</v>
       </c>
       <c r="F147" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G147" t="s">
         <v>13</v>
@@ -8804,7 +5466,7 @@
         <v>188</v>
       </c>
       <c r="F152" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G152" t="s">
         <v>13</v>
@@ -8886,7 +5548,7 @@
         <v>193</v>
       </c>
       <c r="F157" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G157" t="s">
         <v>13</v>
@@ -8968,7 +5630,7 @@
         <v>198</v>
       </c>
       <c r="F162" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G162" t="s">
         <v>13</v>
@@ -9050,7 +5712,7 @@
         <v>203</v>
       </c>
       <c r="F167" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G167" t="s">
         <v>13</v>
@@ -9132,7 +5794,7 @@
         <v>208</v>
       </c>
       <c r="F172" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G172" t="s">
         <v>13</v>
@@ -9214,7 +5876,7 @@
         <v>213</v>
       </c>
       <c r="F177" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G177" t="s">
         <v>13</v>
@@ -9296,7 +5958,7 @@
         <v>218</v>
       </c>
       <c r="F182" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G182" t="s">
         <v>13</v>
@@ -9378,7 +6040,7 @@
         <v>223</v>
       </c>
       <c r="F187" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G187" t="s">
         <v>13</v>
@@ -9460,7 +6122,7 @@
         <v>228</v>
       </c>
       <c r="F192" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G192" t="s">
         <v>13</v>
@@ -9542,7 +6204,7 @@
         <v>233</v>
       </c>
       <c r="F197" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G197" t="s">
         <v>13</v>
@@ -9624,7 +6286,7 @@
         <v>238</v>
       </c>
       <c r="F202" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G202" t="s">
         <v>13</v>
@@ -9706,7 +6368,7 @@
         <v>243</v>
       </c>
       <c r="F207" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G207" t="s">
         <v>13</v>
@@ -9802,7 +6464,7 @@
         <v>249</v>
       </c>
       <c r="F213" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G213" t="s">
         <v>13</v>
@@ -9842,7 +6504,7 @@
         <v>251</v>
       </c>
       <c r="F215" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G215" t="s">
         <v>13</v>
@@ -9938,7 +6600,7 @@
         <v>257</v>
       </c>
       <c r="F221" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G221" t="s">
         <v>13</v>
@@ -10034,7 +6696,7 @@
         <v>263</v>
       </c>
       <c r="F227" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G227" t="s">
         <v>13</v>
@@ -10130,7 +6792,7 @@
         <v>269</v>
       </c>
       <c r="F233" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G233" t="s">
         <v>13</v>
@@ -10226,7 +6888,7 @@
         <v>275</v>
       </c>
       <c r="F239" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G239" t="s">
         <v>13</v>
@@ -10322,7 +6984,7 @@
         <v>281</v>
       </c>
       <c r="F245" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G245" t="s">
         <v>13</v>
@@ -10418,7 +7080,7 @@
         <v>287</v>
       </c>
       <c r="F251" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G251" t="s">
         <v>13</v>
@@ -10500,7 +7162,7 @@
         <v>292</v>
       </c>
       <c r="F256" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G256" t="s">
         <v>13</v>
@@ -10582,7 +7244,7 @@
         <v>297</v>
       </c>
       <c r="F261" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G261" t="s">
         <v>13</v>
@@ -10664,7 +7326,7 @@
         <v>302</v>
       </c>
       <c r="F266" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G266" t="s">
         <v>13</v>
@@ -10746,7 +7408,7 @@
         <v>307</v>
       </c>
       <c r="F271" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G271" t="s">
         <v>13</v>
@@ -10828,7 +7490,7 @@
         <v>312</v>
       </c>
       <c r="F276" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G276" t="s">
         <v>13</v>
@@ -10910,7 +7572,7 @@
         <v>317</v>
       </c>
       <c r="F281" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G281" t="s">
         <v>13</v>
@@ -10992,7 +7654,7 @@
         <v>322</v>
       </c>
       <c r="F286" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G286" t="s">
         <v>13</v>
@@ -11074,7 +7736,7 @@
         <v>327</v>
       </c>
       <c r="F291" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G291" t="s">
         <v>13</v>
@@ -12105,10 +8767,10 @@
         <v>401</v>
       </c>
       <c r="E364" t="s">
-        <v>679</v>
+        <v>640</v>
       </c>
       <c r="F364" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G364" t="s">
         <v>13</v>
@@ -12128,7 +8790,7 @@
         <v>402</v>
       </c>
       <c r="F365" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G365" t="s">
         <v>13</v>
@@ -12162,7 +8824,7 @@
         <v>404</v>
       </c>
       <c r="F367" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G367" t="s">
         <v>13</v>
@@ -12182,7 +8844,7 @@
         <v>405</v>
       </c>
       <c r="F368" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G368" t="s">
         <v>13</v>
@@ -12202,7 +8864,7 @@
         <v>406</v>
       </c>
       <c r="F369" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G369" t="s">
         <v>13</v>
@@ -12222,7 +8884,7 @@
         <v>407</v>
       </c>
       <c r="F370" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G370" t="s">
         <v>13</v>
@@ -12242,7 +8904,7 @@
         <v>408</v>
       </c>
       <c r="F371" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G371" t="s">
         <v>13</v>
@@ -12262,7 +8924,7 @@
         <v>409</v>
       </c>
       <c r="F372" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G372" t="s">
         <v>13</v>
@@ -12282,7 +8944,7 @@
         <v>410</v>
       </c>
       <c r="F373" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G373" t="s">
         <v>13</v>
@@ -12302,7 +8964,7 @@
         <v>411</v>
       </c>
       <c r="F374" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G374" t="s">
         <v>13</v>
@@ -12322,7 +8984,7 @@
         <v>412</v>
       </c>
       <c r="F375" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G375" t="s">
         <v>13</v>
@@ -12342,7 +9004,7 @@
         <v>413</v>
       </c>
       <c r="F376" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G376" t="s">
         <v>13</v>
@@ -12362,7 +9024,7 @@
         <v>414</v>
       </c>
       <c r="F377" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G377" t="s">
         <v>13</v>
@@ -12382,7 +9044,7 @@
         <v>415</v>
       </c>
       <c r="F378" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G378" t="s">
         <v>13</v>
@@ -12416,7 +9078,7 @@
         <v>417</v>
       </c>
       <c r="F380" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G380" t="s">
         <v>13</v>
@@ -12436,7 +9098,7 @@
         <v>418</v>
       </c>
       <c r="F381" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G381" t="s">
         <v>13</v>
@@ -12456,7 +9118,7 @@
         <v>419</v>
       </c>
       <c r="F382" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G382" t="s">
         <v>13</v>
@@ -12476,7 +9138,7 @@
         <v>420</v>
       </c>
       <c r="F383" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G383" t="s">
         <v>13</v>
@@ -12496,7 +9158,7 @@
         <v>421</v>
       </c>
       <c r="F384" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G384" t="s">
         <v>13</v>
@@ -12516,7 +9178,7 @@
         <v>422</v>
       </c>
       <c r="F385" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G385" t="s">
         <v>13</v>
@@ -12536,7 +9198,7 @@
         <v>423</v>
       </c>
       <c r="F386" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G386" t="s">
         <v>13</v>
@@ -12556,7 +9218,7 @@
         <v>424</v>
       </c>
       <c r="F387" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G387" t="s">
         <v>13</v>
@@ -12576,7 +9238,7 @@
         <v>425</v>
       </c>
       <c r="F388" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G388" t="s">
         <v>13</v>
@@ -12596,7 +9258,7 @@
         <v>426</v>
       </c>
       <c r="F389" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G389" t="s">
         <v>13</v>
@@ -12630,7 +9292,7 @@
         <v>428</v>
       </c>
       <c r="F391" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G391" t="s">
         <v>13</v>
@@ -12650,7 +9312,7 @@
         <v>429</v>
       </c>
       <c r="F392" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G392" t="s">
         <v>13</v>
@@ -12670,7 +9332,7 @@
         <v>430</v>
       </c>
       <c r="F393" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G393" t="s">
         <v>13</v>
@@ -12690,7 +9352,7 @@
         <v>431</v>
       </c>
       <c r="F394" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G394" t="s">
         <v>13</v>
@@ -12710,7 +9372,7 @@
         <v>432</v>
       </c>
       <c r="F395" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G395" t="s">
         <v>13</v>
@@ -12730,7 +9392,7 @@
         <v>433</v>
       </c>
       <c r="F396" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G396" t="s">
         <v>13</v>
@@ -12750,7 +9412,7 @@
         <v>434</v>
       </c>
       <c r="F397" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G397" t="s">
         <v>13</v>
@@ -12770,7 +9432,7 @@
         <v>435</v>
       </c>
       <c r="F398" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G398" t="s">
         <v>13</v>
@@ -12790,7 +9452,7 @@
         <v>436</v>
       </c>
       <c r="F399" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G399" t="s">
         <v>13</v>
@@ -12810,7 +9472,7 @@
         <v>437</v>
       </c>
       <c r="F400" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G400" t="s">
         <v>13</v>
@@ -12830,7 +9492,7 @@
         <v>438</v>
       </c>
       <c r="F401" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G401" t="s">
         <v>13</v>
@@ -12850,7 +9512,7 @@
         <v>439</v>
       </c>
       <c r="F402" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G402" t="s">
         <v>13</v>
@@ -12870,7 +9532,7 @@
         <v>440</v>
       </c>
       <c r="F403" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G403" t="s">
         <v>13</v>
@@ -12890,7 +9552,7 @@
         <v>441</v>
       </c>
       <c r="F404" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G404" t="s">
         <v>13</v>
@@ -12910,7 +9572,7 @@
         <v>442</v>
       </c>
       <c r="F405" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G405" t="s">
         <v>13</v>
@@ -12930,7 +9592,7 @@
         <v>443</v>
       </c>
       <c r="F406" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G406" t="s">
         <v>13</v>
@@ -12950,7 +9612,7 @@
         <v>444</v>
       </c>
       <c r="F407" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G407" t="s">
         <v>13</v>
@@ -12970,7 +9632,7 @@
         <v>445</v>
       </c>
       <c r="F408" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G408" t="s">
         <v>13</v>
@@ -12990,7 +9652,7 @@
         <v>446</v>
       </c>
       <c r="F409" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G409" t="s">
         <v>13</v>
@@ -13010,7 +9672,7 @@
         <v>447</v>
       </c>
       <c r="F410" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G410" t="s">
         <v>13</v>
@@ -13030,7 +9692,7 @@
         <v>448</v>
       </c>
       <c r="F411" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G411" t="s">
         <v>13</v>
@@ -13050,7 +9712,7 @@
         <v>449</v>
       </c>
       <c r="F412" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G412" t="s">
         <v>13</v>
@@ -13070,7 +9732,7 @@
         <v>450</v>
       </c>
       <c r="F413" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G413" t="s">
         <v>13</v>
@@ -13090,7 +9752,7 @@
         <v>451</v>
       </c>
       <c r="F414" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G414" t="s">
         <v>13</v>
@@ -13110,7 +9772,7 @@
         <v>452</v>
       </c>
       <c r="F415" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G415" t="s">
         <v>13</v>
@@ -13130,7 +9792,7 @@
         <v>453</v>
       </c>
       <c r="F416" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G416" t="s">
         <v>13</v>
@@ -13150,7 +9812,7 @@
         <v>454</v>
       </c>
       <c r="F417" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G417" t="s">
         <v>13</v>
@@ -13170,7 +9832,7 @@
         <v>455</v>
       </c>
       <c r="F418" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G418" t="s">
         <v>13</v>
@@ -13190,7 +9852,7 @@
         <v>456</v>
       </c>
       <c r="F419" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G419" t="s">
         <v>13</v>
@@ -13210,7 +9872,7 @@
         <v>457</v>
       </c>
       <c r="F420" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G420" t="s">
         <v>13</v>
@@ -13230,7 +9892,7 @@
         <v>458</v>
       </c>
       <c r="F421" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G421" t="s">
         <v>13</v>
@@ -13250,7 +9912,7 @@
         <v>459</v>
       </c>
       <c r="F422" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G422" t="s">
         <v>13</v>
@@ -13267,10 +9929,10 @@
         <v>401</v>
       </c>
       <c r="E423" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="F423" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G423" t="s">
         <v>13</v>
@@ -13290,7 +9952,7 @@
         <v>461</v>
       </c>
       <c r="F424" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G424" t="s">
         <v>13</v>
@@ -13310,7 +9972,7 @@
         <v>462</v>
       </c>
       <c r="F425" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G425" t="s">
         <v>13</v>
@@ -13330,7 +9992,7 @@
         <v>463</v>
       </c>
       <c r="F426" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G426" t="s">
         <v>13</v>
@@ -13350,7 +10012,7 @@
         <v>464</v>
       </c>
       <c r="F427" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G427" t="s">
         <v>13</v>
@@ -13370,7 +10032,7 @@
         <v>465</v>
       </c>
       <c r="F428" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G428" t="s">
         <v>13</v>
@@ -13390,7 +10052,7 @@
         <v>466</v>
       </c>
       <c r="F429" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G429" t="s">
         <v>13</v>
@@ -13410,7 +10072,7 @@
         <v>467</v>
       </c>
       <c r="F430" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G430" t="s">
         <v>13</v>
@@ -13430,7 +10092,7 @@
         <v>468</v>
       </c>
       <c r="F431" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G431" t="s">
         <v>13</v>
@@ -13450,7 +10112,7 @@
         <v>469</v>
       </c>
       <c r="F432" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G432" t="s">
         <v>13</v>
@@ -13470,7 +10132,7 @@
         <v>470</v>
       </c>
       <c r="F433" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G433" t="s">
         <v>13</v>
@@ -13490,7 +10152,7 @@
         <v>471</v>
       </c>
       <c r="F434" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G434" t="s">
         <v>13</v>
@@ -13510,7 +10172,7 @@
         <v>472</v>
       </c>
       <c r="F435" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G435" t="s">
         <v>13</v>
@@ -13530,7 +10192,7 @@
         <v>473</v>
       </c>
       <c r="F436" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G436" t="s">
         <v>13</v>
@@ -13550,7 +10212,7 @@
         <v>474</v>
       </c>
       <c r="F437" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G437" t="s">
         <v>13</v>
@@ -13570,7 +10232,7 @@
         <v>475</v>
       </c>
       <c r="F438" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G438" t="s">
         <v>13</v>
@@ -13590,7 +10252,7 @@
         <v>476</v>
       </c>
       <c r="F439" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G439" t="s">
         <v>13</v>
@@ -13610,7 +10272,7 @@
         <v>477</v>
       </c>
       <c r="F440" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G440" t="s">
         <v>13</v>
@@ -13630,7 +10292,7 @@
         <v>478</v>
       </c>
       <c r="F441" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G441" t="s">
         <v>13</v>
@@ -13650,7 +10312,7 @@
         <v>479</v>
       </c>
       <c r="F442" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G442" t="s">
         <v>13</v>
@@ -13670,7 +10332,7 @@
         <v>480</v>
       </c>
       <c r="F443" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G443" t="s">
         <v>13</v>
@@ -13690,7 +10352,7 @@
         <v>481</v>
       </c>
       <c r="F444" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G444" t="s">
         <v>13</v>
@@ -13710,7 +10372,7 @@
         <v>482</v>
       </c>
       <c r="F445" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G445" t="s">
         <v>13</v>
@@ -13730,7 +10392,7 @@
         <v>483</v>
       </c>
       <c r="F446" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G446" t="s">
         <v>13</v>
@@ -13750,7 +10412,7 @@
         <v>484</v>
       </c>
       <c r="F447" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G447" t="s">
         <v>13</v>
@@ -13770,7 +10432,7 @@
         <v>485</v>
       </c>
       <c r="F448" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G448" t="s">
         <v>13</v>
@@ -13790,7 +10452,7 @@
         <v>486</v>
       </c>
       <c r="F449" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G449" t="s">
         <v>13</v>
@@ -13810,7 +10472,7 @@
         <v>487</v>
       </c>
       <c r="F450" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G450" t="s">
         <v>13</v>
@@ -13830,7 +10492,7 @@
         <v>488</v>
       </c>
       <c r="F451" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G451" t="s">
         <v>13</v>
@@ -13850,7 +10512,7 @@
         <v>489</v>
       </c>
       <c r="F452" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G452" t="s">
         <v>13</v>
@@ -13870,7 +10532,7 @@
         <v>490</v>
       </c>
       <c r="F453" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G453" t="s">
         <v>13</v>
@@ -13890,7 +10552,7 @@
         <v>491</v>
       </c>
       <c r="F454" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G454" t="s">
         <v>13</v>
@@ -13910,7 +10572,7 @@
         <v>492</v>
       </c>
       <c r="F455" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G455" t="s">
         <v>13</v>
@@ -13930,7 +10592,7 @@
         <v>493</v>
       </c>
       <c r="F456" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G456" t="s">
         <v>13</v>
@@ -13950,7 +10612,7 @@
         <v>494</v>
       </c>
       <c r="F457" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G457" t="s">
         <v>13</v>
@@ -13970,7 +10632,7 @@
         <v>495</v>
       </c>
       <c r="F458" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G458" t="s">
         <v>13</v>
@@ -13990,7 +10652,7 @@
         <v>496</v>
       </c>
       <c r="F459" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G459" t="s">
         <v>13</v>
@@ -14010,7 +10672,7 @@
         <v>497</v>
       </c>
       <c r="F460" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G460" t="s">
         <v>13</v>
@@ -14030,7 +10692,7 @@
         <v>498</v>
       </c>
       <c r="F461" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G461" t="s">
         <v>13</v>
@@ -14050,7 +10712,7 @@
         <v>499</v>
       </c>
       <c r="F462" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G462" t="s">
         <v>13</v>
@@ -14070,7 +10732,7 @@
         <v>500</v>
       </c>
       <c r="F463" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G463" t="s">
         <v>13</v>
@@ -14090,7 +10752,7 @@
         <v>501</v>
       </c>
       <c r="F464" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G464" t="s">
         <v>13</v>
@@ -14110,7 +10772,7 @@
         <v>502</v>
       </c>
       <c r="F465" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G465" t="s">
         <v>13</v>
@@ -14130,7 +10792,7 @@
         <v>503</v>
       </c>
       <c r="F466" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G466" t="s">
         <v>13</v>
@@ -14150,7 +10812,7 @@
         <v>504</v>
       </c>
       <c r="F467" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G467" t="s">
         <v>13</v>
@@ -14170,7 +10832,7 @@
         <v>505</v>
       </c>
       <c r="F468" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G468" t="s">
         <v>13</v>
@@ -14190,7 +10852,7 @@
         <v>506</v>
       </c>
       <c r="F469" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G469" t="s">
         <v>13</v>
@@ -14210,7 +10872,7 @@
         <v>507</v>
       </c>
       <c r="F470" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G470" t="s">
         <v>13</v>
@@ -14230,7 +10892,7 @@
         <v>508</v>
       </c>
       <c r="F471" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G471" t="s">
         <v>13</v>
@@ -14250,7 +10912,7 @@
         <v>509</v>
       </c>
       <c r="F472" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G472" t="s">
         <v>13</v>
@@ -14270,7 +10932,7 @@
         <v>510</v>
       </c>
       <c r="F473" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G473" t="s">
         <v>13</v>
@@ -14290,7 +10952,7 @@
         <v>511</v>
       </c>
       <c r="F474" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G474" t="s">
         <v>13</v>
@@ -14310,7 +10972,7 @@
         <v>512</v>
       </c>
       <c r="F475" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G475" t="s">
         <v>13</v>
@@ -14330,7 +10992,7 @@
         <v>513</v>
       </c>
       <c r="F476" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G476" t="s">
         <v>13</v>
@@ -14350,7 +11012,7 @@
         <v>514</v>
       </c>
       <c r="F477" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G477" t="s">
         <v>13</v>
@@ -14370,7 +11032,7 @@
         <v>515</v>
       </c>
       <c r="F478" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G478" t="s">
         <v>13</v>
@@ -14390,7 +11052,7 @@
         <v>516</v>
       </c>
       <c r="F479" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G479" t="s">
         <v>13</v>
@@ -14410,7 +11072,7 @@
         <v>517</v>
       </c>
       <c r="F480" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G480" t="s">
         <v>13</v>
@@ -14430,7 +11092,7 @@
         <v>518</v>
       </c>
       <c r="F481" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G481" t="s">
         <v>13</v>
@@ -14450,7 +11112,7 @@
         <v>519</v>
       </c>
       <c r="F482" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G482" t="s">
         <v>13</v>
@@ -14470,7 +11132,7 @@
         <v>520</v>
       </c>
       <c r="F483" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G483" t="s">
         <v>13</v>
@@ -14490,7 +11152,7 @@
         <v>521</v>
       </c>
       <c r="F484" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G484" t="s">
         <v>13</v>
@@ -14510,7 +11172,7 @@
         <v>522</v>
       </c>
       <c r="F485" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G485" t="s">
         <v>13</v>
@@ -14530,7 +11192,7 @@
         <v>523</v>
       </c>
       <c r="F486" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G486" t="s">
         <v>13</v>
@@ -14550,7 +11212,7 @@
         <v>524</v>
       </c>
       <c r="F487" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G487" t="s">
         <v>13</v>
@@ -14570,7 +11232,7 @@
         <v>525</v>
       </c>
       <c r="F488" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G488" t="s">
         <v>13</v>
@@ -14590,7 +11252,7 @@
         <v>526</v>
       </c>
       <c r="F489" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G489" t="s">
         <v>13</v>
@@ -14610,7 +11272,7 @@
         <v>527</v>
       </c>
       <c r="F490" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G490" t="s">
         <v>13</v>
@@ -14630,7 +11292,7 @@
         <v>528</v>
       </c>
       <c r="F491" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G491" t="s">
         <v>13</v>
@@ -14650,7 +11312,7 @@
         <v>529</v>
       </c>
       <c r="F492" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G492" t="s">
         <v>13</v>
@@ -14670,7 +11332,7 @@
         <v>530</v>
       </c>
       <c r="F493" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G493" t="s">
         <v>13</v>
@@ -14690,7 +11352,7 @@
         <v>531</v>
       </c>
       <c r="F494" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G494" t="s">
         <v>13</v>
@@ -14710,7 +11372,7 @@
         <v>532</v>
       </c>
       <c r="F495" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G495" t="s">
         <v>13</v>
@@ -14730,7 +11392,7 @@
         <v>533</v>
       </c>
       <c r="F496" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G496" t="s">
         <v>13</v>
@@ -14750,7 +11412,7 @@
         <v>534</v>
       </c>
       <c r="F497" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G497" t="s">
         <v>13</v>
@@ -14770,7 +11432,7 @@
         <v>535</v>
       </c>
       <c r="F498" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G498" t="s">
         <v>13</v>
@@ -14790,7 +11452,7 @@
         <v>536</v>
       </c>
       <c r="F499" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G499" t="s">
         <v>13</v>
@@ -14810,7 +11472,7 @@
         <v>537</v>
       </c>
       <c r="F500" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G500" t="s">
         <v>13</v>
@@ -14830,7 +11492,7 @@
         <v>538</v>
       </c>
       <c r="F501" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G501" t="s">
         <v>13</v>
@@ -14850,7 +11512,7 @@
         <v>539</v>
       </c>
       <c r="F502" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G502" t="s">
         <v>13</v>
@@ -14870,7 +11532,7 @@
         <v>540</v>
       </c>
       <c r="F503" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G503" t="s">
         <v>13</v>
@@ -14890,7 +11552,7 @@
         <v>541</v>
       </c>
       <c r="F504" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G504" t="s">
         <v>13</v>
@@ -14910,7 +11572,7 @@
         <v>542</v>
       </c>
       <c r="F505" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G505" t="s">
         <v>13</v>
@@ -14930,7 +11592,7 @@
         <v>543</v>
       </c>
       <c r="F506" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G506" t="s">
         <v>13</v>
@@ -14950,7 +11612,7 @@
         <v>544</v>
       </c>
       <c r="F507" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G507" t="s">
         <v>13</v>
@@ -14970,7 +11632,7 @@
         <v>545</v>
       </c>
       <c r="F508" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G508" t="s">
         <v>13</v>
@@ -14990,7 +11652,7 @@
         <v>546</v>
       </c>
       <c r="F509" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G509" t="s">
         <v>13</v>
@@ -15010,7 +11672,7 @@
         <v>547</v>
       </c>
       <c r="F510" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G510" t="s">
         <v>13</v>
@@ -15044,7 +11706,7 @@
         <v>549</v>
       </c>
       <c r="F512" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G512" t="s">
         <v>13</v>
@@ -15064,7 +11726,7 @@
         <v>550</v>
       </c>
       <c r="F513" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G513" t="s">
         <v>13</v>
@@ -15084,7 +11746,7 @@
         <v>551</v>
       </c>
       <c r="F514" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G514" t="s">
         <v>13</v>
@@ -15104,7 +11766,7 @@
         <v>552</v>
       </c>
       <c r="F515" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G515" t="s">
         <v>13</v>
@@ -15124,7 +11786,7 @@
         <v>553</v>
       </c>
       <c r="F516" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G516" t="s">
         <v>13</v>
@@ -15144,7 +11806,7 @@
         <v>554</v>
       </c>
       <c r="F517" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G517" t="s">
         <v>13</v>
@@ -15164,7 +11826,7 @@
         <v>555</v>
       </c>
       <c r="F518" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G518" t="s">
         <v>13</v>
@@ -15184,7 +11846,7 @@
         <v>556</v>
       </c>
       <c r="F519" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G519" t="s">
         <v>13</v>
@@ -15204,7 +11866,7 @@
         <v>557</v>
       </c>
       <c r="F520" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G520" t="s">
         <v>13</v>
@@ -15224,7 +11886,7 @@
         <v>558</v>
       </c>
       <c r="F521" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G521" t="s">
         <v>13</v>
@@ -15244,7 +11906,7 @@
         <v>559</v>
       </c>
       <c r="F522" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G522" t="s">
         <v>13</v>
@@ -15264,7 +11926,7 @@
         <v>560</v>
       </c>
       <c r="F523" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G523" t="s">
         <v>13</v>
@@ -15284,7 +11946,7 @@
         <v>561</v>
       </c>
       <c r="F524" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G524" t="s">
         <v>13</v>
@@ -15304,7 +11966,7 @@
         <v>562</v>
       </c>
       <c r="F525" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G525" t="s">
         <v>13</v>
@@ -15324,7 +11986,7 @@
         <v>563</v>
       </c>
       <c r="F526" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G526" t="s">
         <v>13</v>
@@ -15344,7 +12006,7 @@
         <v>564</v>
       </c>
       <c r="F527" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G527" t="s">
         <v>13</v>
@@ -15364,7 +12026,7 @@
         <v>565</v>
       </c>
       <c r="F528" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G528" t="s">
         <v>13</v>
@@ -15384,7 +12046,7 @@
         <v>566</v>
       </c>
       <c r="F529" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G529" t="s">
         <v>13</v>
@@ -15404,7 +12066,7 @@
         <v>567</v>
       </c>
       <c r="F530" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G530" t="s">
         <v>13</v>
@@ -15424,7 +12086,7 @@
         <v>568</v>
       </c>
       <c r="F531" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G531" t="s">
         <v>13</v>
@@ -15444,7 +12106,7 @@
         <v>569</v>
       </c>
       <c r="F532" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G532" t="s">
         <v>13</v>
@@ -15464,7 +12126,7 @@
         <v>570</v>
       </c>
       <c r="F533" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G533" t="s">
         <v>13</v>
@@ -15484,7 +12146,7 @@
         <v>571</v>
       </c>
       <c r="F534" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G534" t="s">
         <v>13</v>
@@ -15504,7 +12166,7 @@
         <v>572</v>
       </c>
       <c r="F535" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G535" t="s">
         <v>13</v>
@@ -15524,7 +12186,7 @@
         <v>573</v>
       </c>
       <c r="F536" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G536" t="s">
         <v>13</v>
@@ -15544,7 +12206,7 @@
         <v>574</v>
       </c>
       <c r="F537" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G537" t="s">
         <v>13</v>
@@ -15564,7 +12226,7 @@
         <v>575</v>
       </c>
       <c r="F538" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G538" t="s">
         <v>13</v>
@@ -15584,7 +12246,7 @@
         <v>576</v>
       </c>
       <c r="F539" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G539" t="s">
         <v>13</v>
@@ -15604,7 +12266,7 @@
         <v>577</v>
       </c>
       <c r="F540" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G540" t="s">
         <v>13</v>
@@ -15624,7 +12286,7 @@
         <v>578</v>
       </c>
       <c r="F541" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G541" t="s">
         <v>13</v>
@@ -15644,7 +12306,7 @@
         <v>579</v>
       </c>
       <c r="F542" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G542" t="s">
         <v>13</v>
@@ -15664,7 +12326,7 @@
         <v>580</v>
       </c>
       <c r="F543" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G543" t="s">
         <v>13</v>
@@ -15684,7 +12346,7 @@
         <v>581</v>
       </c>
       <c r="F544" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G544" t="s">
         <v>13</v>
@@ -15704,7 +12366,7 @@
         <v>582</v>
       </c>
       <c r="F545" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G545" t="s">
         <v>13</v>
@@ -15724,7 +12386,7 @@
         <v>583</v>
       </c>
       <c r="F546" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G546" t="s">
         <v>13</v>
@@ -15744,7 +12406,7 @@
         <v>584</v>
       </c>
       <c r="F547" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G547" t="s">
         <v>13</v>
@@ -15764,7 +12426,7 @@
         <v>585</v>
       </c>
       <c r="F548" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G548" t="s">
         <v>13</v>
@@ -15784,7 +12446,7 @@
         <v>586</v>
       </c>
       <c r="F549" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G549" t="s">
         <v>13</v>
@@ -15804,7 +12466,7 @@
         <v>587</v>
       </c>
       <c r="F550" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G550" t="s">
         <v>13</v>
@@ -15824,7 +12486,7 @@
         <v>588</v>
       </c>
       <c r="F551" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G551" t="s">
         <v>13</v>
@@ -15844,7 +12506,7 @@
         <v>589</v>
       </c>
       <c r="F552" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G552" t="s">
         <v>13</v>
@@ -15864,7 +12526,7 @@
         <v>590</v>
       </c>
       <c r="F553" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G553" t="s">
         <v>13</v>
@@ -15884,7 +12546,7 @@
         <v>591</v>
       </c>
       <c r="F554" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G554" t="s">
         <v>13</v>
@@ -15904,7 +12566,7 @@
         <v>592</v>
       </c>
       <c r="F555" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G555" t="s">
         <v>13</v>
@@ -15924,7 +12586,7 @@
         <v>593</v>
       </c>
       <c r="F556" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G556" t="s">
         <v>13</v>
@@ -15944,7 +12606,7 @@
         <v>594</v>
       </c>
       <c r="F557" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G557" t="s">
         <v>13</v>
@@ -15964,7 +12626,7 @@
         <v>595</v>
       </c>
       <c r="F558" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G558" t="s">
         <v>13</v>
@@ -15984,7 +12646,7 @@
         <v>596</v>
       </c>
       <c r="F559" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G559" t="s">
         <v>13</v>
@@ -16004,7 +12666,7 @@
         <v>597</v>
       </c>
       <c r="F560" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G560" t="s">
         <v>13</v>
@@ -16024,7 +12686,7 @@
         <v>598</v>
       </c>
       <c r="F561" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G561" t="s">
         <v>13</v>
@@ -16044,7 +12706,7 @@
         <v>599</v>
       </c>
       <c r="F562" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G562" t="s">
         <v>13</v>
@@ -16064,7 +12726,7 @@
         <v>600</v>
       </c>
       <c r="F563" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G563" t="s">
         <v>13</v>
@@ -16084,7 +12746,7 @@
         <v>601</v>
       </c>
       <c r="F564" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G564" t="s">
         <v>13</v>
@@ -16104,7 +12766,7 @@
         <v>602</v>
       </c>
       <c r="F565" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G565" t="s">
         <v>13</v>
@@ -16124,7 +12786,7 @@
         <v>603</v>
       </c>
       <c r="F566" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G566" t="s">
         <v>13</v>
@@ -16144,7 +12806,7 @@
         <v>604</v>
       </c>
       <c r="F567" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G567" t="s">
         <v>13</v>
@@ -16164,7 +12826,7 @@
         <v>605</v>
       </c>
       <c r="F568" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G568" t="s">
         <v>13</v>
@@ -16184,7 +12846,7 @@
         <v>606</v>
       </c>
       <c r="F569" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G569" t="s">
         <v>13</v>
@@ -16204,7 +12866,7 @@
         <v>607</v>
       </c>
       <c r="F570" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G570" t="s">
         <v>13</v>
@@ -16224,7 +12886,7 @@
         <v>608</v>
       </c>
       <c r="F571" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G571" t="s">
         <v>13</v>
@@ -16244,7 +12906,7 @@
         <v>609</v>
       </c>
       <c r="F572" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G572" t="s">
         <v>13</v>
@@ -16264,7 +12926,7 @@
         <v>610</v>
       </c>
       <c r="F573" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G573" t="s">
         <v>13</v>
@@ -16284,7 +12946,7 @@
         <v>611</v>
       </c>
       <c r="F574" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G574" t="s">
         <v>13</v>
@@ -16304,7 +12966,7 @@
         <v>612</v>
       </c>
       <c r="F575" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G575" t="s">
         <v>13</v>
@@ -16324,7 +12986,7 @@
         <v>613</v>
       </c>
       <c r="F576" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G576" t="s">
         <v>13</v>
@@ -16344,7 +13006,7 @@
         <v>614</v>
       </c>
       <c r="F577" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G577" t="s">
         <v>13</v>
@@ -16364,7 +13026,7 @@
         <v>615</v>
       </c>
       <c r="F578" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G578" t="s">
         <v>13</v>
@@ -16384,7 +13046,7 @@
         <v>616</v>
       </c>
       <c r="F579" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G579" t="s">
         <v>13</v>
@@ -16404,7 +13066,7 @@
         <v>617</v>
       </c>
       <c r="F580" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G580" t="s">
         <v>13</v>
@@ -16424,7 +13086,7 @@
         <v>618</v>
       </c>
       <c r="F581" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G581" t="s">
         <v>13</v>
@@ -16444,7 +13106,7 @@
         <v>619</v>
       </c>
       <c r="F582" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G582" t="s">
         <v>13</v>
@@ -16464,7 +13126,7 @@
         <v>620</v>
       </c>
       <c r="F583" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G583" t="s">
         <v>13</v>
@@ -16484,7 +13146,7 @@
         <v>621</v>
       </c>
       <c r="F584" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G584" t="s">
         <v>13</v>
@@ -16504,7 +13166,7 @@
         <v>622</v>
       </c>
       <c r="F585" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G585" t="s">
         <v>13</v>
@@ -16524,7 +13186,7 @@
         <v>623</v>
       </c>
       <c r="F586" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G586" t="s">
         <v>13</v>
@@ -16544,7 +13206,7 @@
         <v>624</v>
       </c>
       <c r="F587" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G587" t="s">
         <v>13</v>
@@ -16564,7 +13226,7 @@
         <v>625</v>
       </c>
       <c r="F588" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G588" t="s">
         <v>13</v>
@@ -16584,7 +13246,7 @@
         <v>626</v>
       </c>
       <c r="F589" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G589" t="s">
         <v>13</v>
@@ -16604,7 +13266,7 @@
         <v>627</v>
       </c>
       <c r="F590" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G590" t="s">
         <v>13</v>
@@ -16624,7 +13286,7 @@
         <v>628</v>
       </c>
       <c r="F591" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G591" t="s">
         <v>13</v>
@@ -16644,7 +13306,7 @@
         <v>629</v>
       </c>
       <c r="F592" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G592" t="s">
         <v>13</v>
@@ -16664,7 +13326,7 @@
         <v>630</v>
       </c>
       <c r="F593" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G593" t="s">
         <v>13</v>
@@ -16684,7 +13346,7 @@
         <v>631</v>
       </c>
       <c r="F594" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G594" t="s">
         <v>13</v>
@@ -16704,7 +13366,7 @@
         <v>632</v>
       </c>
       <c r="F595" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G595" t="s">
         <v>13</v>
@@ -16724,7 +13386,7 @@
         <v>633</v>
       </c>
       <c r="F596" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G596" t="s">
         <v>13</v>
@@ -16744,7 +13406,7 @@
         <v>634</v>
       </c>
       <c r="F597" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G597" t="s">
         <v>13</v>
@@ -16764,7 +13426,7 @@
         <v>635</v>
       </c>
       <c r="F598" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G598" t="s">
         <v>13</v>
@@ -16784,7 +13446,7 @@
         <v>636</v>
       </c>
       <c r="F599" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G599" t="s">
         <v>13</v>
@@ -16804,7 +13466,7 @@
         <v>637</v>
       </c>
       <c r="F600" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G600" t="s">
         <v>13</v>
@@ -16824,558 +13486,12 @@
         <v>638</v>
       </c>
       <c r="F601" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="G601" t="s">
         <v>13</v>
       </c>
       <c r="I601" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="602" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E602" t="s">
-        <v>639</v>
-      </c>
-      <c r="F602" t="s">
-        <v>680</v>
-      </c>
-      <c r="G602" t="s">
-        <v>13</v>
-      </c>
-      <c r="I602" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="603" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E603" t="s">
-        <v>640</v>
-      </c>
-      <c r="F603" t="s">
-        <v>680</v>
-      </c>
-      <c r="G603" t="s">
-        <v>13</v>
-      </c>
-      <c r="I603" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="604" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E604" t="s">
-        <v>641</v>
-      </c>
-      <c r="F604" t="s">
-        <v>680</v>
-      </c>
-      <c r="G604" t="s">
-        <v>13</v>
-      </c>
-      <c r="I604" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="605" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E605" t="s">
-        <v>642</v>
-      </c>
-      <c r="F605" t="s">
-        <v>680</v>
-      </c>
-      <c r="G605" t="s">
-        <v>13</v>
-      </c>
-      <c r="I605" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="606" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E606" t="s">
-        <v>643</v>
-      </c>
-      <c r="F606" t="s">
-        <v>680</v>
-      </c>
-      <c r="G606" t="s">
-        <v>13</v>
-      </c>
-      <c r="I606" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="607" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E607" t="s">
-        <v>644</v>
-      </c>
-      <c r="F607" t="s">
-        <v>680</v>
-      </c>
-      <c r="G607" t="s">
-        <v>13</v>
-      </c>
-      <c r="I607" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="608" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E608" t="s">
-        <v>645</v>
-      </c>
-      <c r="F608" t="s">
-        <v>680</v>
-      </c>
-      <c r="G608" t="s">
-        <v>13</v>
-      </c>
-      <c r="I608" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="609" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E609" t="s">
-        <v>646</v>
-      </c>
-      <c r="F609" t="s">
-        <v>680</v>
-      </c>
-      <c r="G609" t="s">
-        <v>13</v>
-      </c>
-      <c r="I609" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="610" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E610" t="s">
-        <v>647</v>
-      </c>
-      <c r="F610" t="s">
-        <v>680</v>
-      </c>
-      <c r="G610" t="s">
-        <v>13</v>
-      </c>
-      <c r="I610" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="611" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E611" t="s">
-        <v>649</v>
-      </c>
-      <c r="F611" t="s">
-        <v>680</v>
-      </c>
-      <c r="G611" t="s">
-        <v>13</v>
-      </c>
-      <c r="I611" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="612" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E612" t="s">
-        <v>650</v>
-      </c>
-      <c r="F612" t="s">
-        <v>680</v>
-      </c>
-      <c r="G612" t="s">
-        <v>13</v>
-      </c>
-      <c r="I612" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="613" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E613" t="s">
-        <v>651</v>
-      </c>
-      <c r="F613" t="s">
-        <v>680</v>
-      </c>
-      <c r="G613" t="s">
-        <v>13</v>
-      </c>
-      <c r="I613" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="614" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E614" t="s">
-        <v>652</v>
-      </c>
-      <c r="F614" t="s">
-        <v>680</v>
-      </c>
-      <c r="G614" t="s">
-        <v>13</v>
-      </c>
-      <c r="I614" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="615" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E615" t="s">
-        <v>653</v>
-      </c>
-      <c r="F615" t="s">
-        <v>680</v>
-      </c>
-      <c r="G615" t="s">
-        <v>13</v>
-      </c>
-      <c r="I615" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="616" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E616" t="s">
-        <v>654</v>
-      </c>
-      <c r="F616" t="s">
-        <v>680</v>
-      </c>
-      <c r="G616" t="s">
-        <v>13</v>
-      </c>
-      <c r="I616" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="617" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E617" t="s">
-        <v>655</v>
-      </c>
-      <c r="F617" t="s">
-        <v>680</v>
-      </c>
-      <c r="G617" t="s">
-        <v>13</v>
-      </c>
-      <c r="I617" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="618" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E618" t="s">
-        <v>656</v>
-      </c>
-      <c r="F618" t="s">
-        <v>680</v>
-      </c>
-      <c r="G618" t="s">
-        <v>13</v>
-      </c>
-      <c r="I618" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="619" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E619" t="s">
-        <v>657</v>
-      </c>
-      <c r="F619" t="s">
-        <v>680</v>
-      </c>
-      <c r="G619" t="s">
-        <v>13</v>
-      </c>
-      <c r="I619" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="620" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E620" t="s">
-        <v>658</v>
-      </c>
-      <c r="F620" t="s">
-        <v>680</v>
-      </c>
-      <c r="G620" t="s">
-        <v>13</v>
-      </c>
-      <c r="I620" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="621" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E621" t="s">
-        <v>659</v>
-      </c>
-      <c r="F621" t="s">
-        <v>680</v>
-      </c>
-      <c r="G621" t="s">
-        <v>13</v>
-      </c>
-      <c r="I621" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="622" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E622" t="s">
-        <v>660</v>
-      </c>
-      <c r="F622" t="s">
-        <v>680</v>
-      </c>
-      <c r="G622" t="s">
-        <v>13</v>
-      </c>
-      <c r="I622" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="623" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E623" t="s">
-        <v>661</v>
-      </c>
-      <c r="F623" t="s">
-        <v>680</v>
-      </c>
-      <c r="G623" t="s">
-        <v>13</v>
-      </c>
-      <c r="I623" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="624" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E624" t="s">
-        <v>662</v>
-      </c>
-      <c r="F624" t="s">
-        <v>680</v>
-      </c>
-      <c r="G624" t="s">
-        <v>13</v>
-      </c>
-      <c r="I624" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="625" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E625" t="s">
-        <v>663</v>
-      </c>
-      <c r="F625" t="s">
-        <v>680</v>
-      </c>
-      <c r="G625" t="s">
-        <v>13</v>
-      </c>
-      <c r="I625" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="626" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E626" t="s">
-        <v>664</v>
-      </c>
-      <c r="F626" t="s">
-        <v>680</v>
-      </c>
-      <c r="G626" t="s">
-        <v>13</v>
-      </c>
-      <c r="I626" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="627" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E627" t="s">
-        <v>665</v>
-      </c>
-      <c r="F627" t="s">
-        <v>680</v>
-      </c>
-      <c r="G627" t="s">
-        <v>13</v>
-      </c>
-      <c r="I627" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="628" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E628" t="s">
-        <v>666</v>
-      </c>
-      <c r="F628" t="s">
-        <v>680</v>
-      </c>
-      <c r="G628" t="s">
-        <v>13</v>
-      </c>
-      <c r="I628" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="629" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E629" t="s">
-        <v>667</v>
-      </c>
-      <c r="F629" t="s">
-        <v>680</v>
-      </c>
-      <c r="G629" t="s">
-        <v>13</v>
-      </c>
-      <c r="I629" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="630" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E630" t="s">
-        <v>668</v>
-      </c>
-      <c r="F630" t="s">
-        <v>680</v>
-      </c>
-      <c r="G630" t="s">
-        <v>13</v>
-      </c>
-      <c r="I630" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="631" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E631" t="s">
-        <v>669</v>
-      </c>
-      <c r="F631" t="s">
-        <v>680</v>
-      </c>
-      <c r="G631" t="s">
-        <v>13</v>
-      </c>
-      <c r="I631" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="632" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E632" t="s">
-        <v>670</v>
-      </c>
-      <c r="F632" t="s">
-        <v>680</v>
-      </c>
-      <c r="G632" t="s">
-        <v>13</v>
-      </c>
-      <c r="I632" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="633" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E633" t="s">
-        <v>671</v>
-      </c>
-      <c r="F633" t="s">
-        <v>680</v>
-      </c>
-      <c r="G633" t="s">
-        <v>13</v>
-      </c>
-      <c r="I633" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="634" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E634" t="s">
-        <v>672</v>
-      </c>
-      <c r="F634" t="s">
-        <v>680</v>
-      </c>
-      <c r="G634" t="s">
-        <v>13</v>
-      </c>
-      <c r="I634" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="635" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E635" t="s">
-        <v>673</v>
-      </c>
-      <c r="F635" t="s">
-        <v>680</v>
-      </c>
-      <c r="G635" t="s">
-        <v>13</v>
-      </c>
-      <c r="I635" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="636" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E636" t="s">
-        <v>674</v>
-      </c>
-      <c r="F636" t="s">
-        <v>680</v>
-      </c>
-      <c r="G636" t="s">
-        <v>13</v>
-      </c>
-      <c r="I636" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="637" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E637" t="s">
-        <v>675</v>
-      </c>
-      <c r="F637" t="s">
-        <v>680</v>
-      </c>
-      <c r="G637" t="s">
-        <v>13</v>
-      </c>
-      <c r="I637" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="638" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E638" t="s">
-        <v>676</v>
-      </c>
-      <c r="F638" t="s">
-        <v>680</v>
-      </c>
-      <c r="G638" t="s">
-        <v>13</v>
-      </c>
-      <c r="I638" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="639" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E639" t="s">
-        <v>677</v>
-      </c>
-      <c r="F639" t="s">
-        <v>680</v>
-      </c>
-      <c r="G639" t="s">
-        <v>13</v>
-      </c>
-      <c r="I639" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="640" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E640" t="s">
-        <v>678</v>
-      </c>
-      <c r="F640" t="s">
-        <v>680</v>
-      </c>
-      <c r="G640" t="s">
-        <v>13</v>
-      </c>
-      <c r="I640" t="s">
         <v>15</v>
       </c>
     </row>

--- a/WIP__translation_dictionary.xlsx
+++ b/WIP__translation_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ldmay/Box Sync/Documents/MADC_Data_Unification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15324F0C-4408-E24B-8A82-937A6490BB6C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1447379B-57FB-524A-8C80-80E6D900B4EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="23540" xr2:uid="{35E1C540-DD7A-FA43-A99D-8F94692F3DD6}"/>
   </bookViews>
@@ -2330,7 +2330,7 @@
   <dimension ref="A1:J601"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A585" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A606" sqref="A606"/>
     </sheetView>
   </sheetViews>

--- a/WIP__translation_dictionary.xlsx
+++ b/WIP__translation_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ldmay/Box Sync/Documents/MADC_Data_Unification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6209B18-DA56-8E42-A096-4F2A93CF555F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E801A3-3619-5949-8C06-BC9AC88F1505}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="24000" xr2:uid="{35E1C540-DD7A-FA43-A99D-8F94692F3DD6}"/>
+    <workbookView xWindow="12800" yWindow="0" windowWidth="25600" windowHeight="24000" xr2:uid="{35E1C540-DD7A-FA43-A99D-8F94692F3DD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5436" uniqueCount="1063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5914" uniqueCount="1137">
   <si>
     <t>form_u2</t>
   </si>
@@ -3222,6 +3222,228 @@
   </si>
   <si>
     <t>ivp_b4</t>
+  </si>
+  <si>
+    <t>b5ptid</t>
+  </si>
+  <si>
+    <t>b5pkt_type</t>
+  </si>
+  <si>
+    <t>b5_formver</t>
+  </si>
+  <si>
+    <t>b5_formdate</t>
+  </si>
+  <si>
+    <t>b5_visit_month</t>
+  </si>
+  <si>
+    <t>b5_visit_day</t>
+  </si>
+  <si>
+    <t>b5_visit_yr</t>
+  </si>
+  <si>
+    <t>b5visit_num</t>
+  </si>
+  <si>
+    <t>b5_examiner</t>
+  </si>
+  <si>
+    <t>npiqinf</t>
+  </si>
+  <si>
+    <t>npiqinfx</t>
+  </si>
+  <si>
+    <t>del</t>
+  </si>
+  <si>
+    <t>delsev</t>
+  </si>
+  <si>
+    <t>hall</t>
+  </si>
+  <si>
+    <t>hallsev</t>
+  </si>
+  <si>
+    <t>agit</t>
+  </si>
+  <si>
+    <t>agitsev</t>
+  </si>
+  <si>
+    <t>depd</t>
+  </si>
+  <si>
+    <t>depdsev</t>
+  </si>
+  <si>
+    <t>anx</t>
+  </si>
+  <si>
+    <t>anxsev</t>
+  </si>
+  <si>
+    <t>elat</t>
+  </si>
+  <si>
+    <t>elatsev</t>
+  </si>
+  <si>
+    <t>apa</t>
+  </si>
+  <si>
+    <t>apasev</t>
+  </si>
+  <si>
+    <t>disn</t>
+  </si>
+  <si>
+    <t>disnsev</t>
+  </si>
+  <si>
+    <t>irr</t>
+  </si>
+  <si>
+    <t>irrsev</t>
+  </si>
+  <si>
+    <t>mot</t>
+  </si>
+  <si>
+    <t>motsev</t>
+  </si>
+  <si>
+    <t>nite</t>
+  </si>
+  <si>
+    <t>nitesev</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>appsev</t>
+  </si>
+  <si>
+    <t>form_b5_behavioral_assessment_npi_q_complete</t>
+  </si>
+  <si>
+    <t>form_b5_behavioral_assessment_npi_q</t>
+  </si>
+  <si>
+    <t>form_b5_behavioral_assessment_npiq_complete</t>
+  </si>
+  <si>
+    <t>form_b5_behavioral_assessment_npiq</t>
+  </si>
+  <si>
+    <t>npiq_score</t>
+  </si>
+  <si>
+    <t>ivp_b5_complete</t>
+  </si>
+  <si>
+    <t>ivp_b5</t>
+  </si>
+  <si>
+    <t>ivp_b6</t>
+  </si>
+  <si>
+    <t>b6ptid</t>
+  </si>
+  <si>
+    <t>b6pkt_type</t>
+  </si>
+  <si>
+    <t>b6_formver</t>
+  </si>
+  <si>
+    <t>b6form_date</t>
+  </si>
+  <si>
+    <t>b6_visit_month</t>
+  </si>
+  <si>
+    <t>b6_visit_day</t>
+  </si>
+  <si>
+    <t>b6_visit_yr</t>
+  </si>
+  <si>
+    <t>b6visit_num</t>
+  </si>
+  <si>
+    <t>b6_examiner</t>
+  </si>
+  <si>
+    <t>nogds___1</t>
+  </si>
+  <si>
+    <t>satis</t>
+  </si>
+  <si>
+    <t>dropact</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>bored</t>
+  </si>
+  <si>
+    <t>spirits</t>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>helpless</t>
+  </si>
+  <si>
+    <t>stayhome</t>
+  </si>
+  <si>
+    <t>memprob</t>
+  </si>
+  <si>
+    <t>wondrful</t>
+  </si>
+  <si>
+    <t>wrthless</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>hopeless</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>gds</t>
+  </si>
+  <si>
+    <t>form_b6_gds_complete</t>
+  </si>
+  <si>
+    <t>form_b6_gds</t>
+  </si>
+  <si>
+    <t>nogds___0</t>
+  </si>
+  <si>
+    <t>nogds</t>
+  </si>
+  <si>
+    <t>ivp_b6_complete</t>
   </si>
 </sst>
 </file>
@@ -3591,19 +3813,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE876574-F5A4-7C48-BC15-5FEB63248101}">
-  <dimension ref="A1:J954"/>
+  <dimension ref="A1:J1020"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A905" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G944" sqref="G944"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A977" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D995" sqref="D995"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" style="3" customWidth="1"/>
+    <col min="3" max="3" width="42.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
@@ -21893,6 +22115,1572 @@
         <v>11</v>
       </c>
     </row>
+    <row r="955" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A955" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B955" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C955" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D955" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G955" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I955" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="956" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A956" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B956" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C956" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D956" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G956" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I956" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="957" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A957" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B957" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C957" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D957" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G957" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I957" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="958" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A958" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B958" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C958" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D958" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G958" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I958" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="959" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A959" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B959" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C959" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D959" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G959" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I959" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="960" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A960" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B960" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C960" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D960" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G960" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I960" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="961" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A961" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B961" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C961" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D961" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G961" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I961" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="962" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A962" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B962" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C962" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D962" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G962" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I962" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="963" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A963" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B963" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C963" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D963" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G963" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I963" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="964" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A964" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B964" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C964" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D964" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E964" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F964" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G964" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I964" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="965" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A965" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B965" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C965" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D965" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E965" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F965" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G965" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I965" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="966" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A966" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B966" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C966" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D966" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E966" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F966" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G966" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I966" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="967" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A967" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B967" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C967" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D967" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E967" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F967" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G967" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I967" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="968" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A968" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B968" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C968" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D968" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E968" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F968" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G968" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I968" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="969" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A969" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B969" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C969" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D969" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E969" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F969" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G969" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I969" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="970" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A970" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B970" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C970" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D970" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E970" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F970" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G970" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I970" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="971" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A971" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B971" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C971" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D971" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E971" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F971" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G971" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I971" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="972" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A972" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B972" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C972" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D972" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E972" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F972" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G972" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I972" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="973" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A973" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B973" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C973" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D973" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E973" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F973" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G973" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I973" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="974" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A974" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B974" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C974" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D974" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E974" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F974" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G974" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I974" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="975" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A975" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B975" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C975" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D975" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E975" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F975" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G975" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I975" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="976" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A976" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B976" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C976" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D976" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E976" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F976" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G976" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I976" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="977" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A977" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B977" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C977" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D977" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E977" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F977" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G977" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I977" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="978" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A978" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B978" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C978" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D978" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E978" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F978" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G978" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I978" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="979" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A979" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B979" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C979" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D979" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E979" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F979" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G979" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I979" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="980" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A980" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B980" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C980" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D980" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E980" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F980" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G980" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I980" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="981" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A981" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B981" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C981" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D981" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E981" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F981" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G981" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I981" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="982" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A982" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B982" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C982" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D982" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E982" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F982" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G982" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I982" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="983" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A983" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B983" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C983" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D983" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E983" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F983" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G983" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I983" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="984" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A984" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B984" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C984" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D984" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E984" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F984" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G984" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I984" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="985" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A985" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B985" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C985" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D985" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E985" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F985" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G985" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I985" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="986" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A986" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B986" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C986" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D986" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E986" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F986" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G986" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I986" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="987" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A987" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B987" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C987" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D987" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E987" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F987" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G987" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I987" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="988" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A988" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B988" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C988" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D988" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E988" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F988" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G988" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I988" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="989" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A989" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B989" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C989" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D989" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E989" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F989" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G989" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I989" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="990" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A990" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B990" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C990" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D990" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E990" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F990" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G990" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I990" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="991" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E991" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F991" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G991" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I991" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="992" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A992" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B992" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C992" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D992" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G992" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I992" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="993" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A993" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B993" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C993" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D993" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G993" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I993" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="994" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A994" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B994" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C994" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D994" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G994" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I994" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="995" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A995" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B995" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C995" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D995" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G995" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I995" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="996" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A996" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B996" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C996" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D996" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G996" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I996" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="997" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A997" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B997" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C997" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D997" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G997" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I997" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="998" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A998" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B998" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C998" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D998" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G998" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I998" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="999" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A999" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B999" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C999" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D999" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G999" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I999" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1000" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C1000" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D1000" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G1000" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1000" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1001" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C1001" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1001" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G1001" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1001" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1002" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C1002" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D1002" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E1002" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F1002" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G1002" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1002" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1003" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C1003" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1003" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E1003" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F1003" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G1003" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1003" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1004" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C1004" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D1004" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E1004" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F1004" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G1004" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1004" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1005" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C1005" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D1005" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E1005" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F1005" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G1005" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1005" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1006" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C1006" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D1006" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E1006" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F1006" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G1006" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1006" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1007" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C1007" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D1007" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E1007" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F1007" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G1007" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1007" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1008" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C1008" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D1008" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E1008" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F1008" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G1008" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1008" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1009" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C1009" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D1009" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E1009" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F1009" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G1009" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1009" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1010" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C1010" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D1010" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E1010" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F1010" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G1010" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1010" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1011" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C1011" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D1011" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E1011" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F1011" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G1011" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1011" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1012" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C1012" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D1012" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E1012" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F1012" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G1012" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1012" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1013" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C1013" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D1013" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E1013" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F1013" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G1013" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1013" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1014" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C1014" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D1014" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E1014" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F1014" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G1014" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1014" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1015" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C1015" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D1015" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E1015" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F1015" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G1015" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1015" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1016" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C1016" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D1016" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E1016" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F1016" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G1016" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1016" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1017" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C1017" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D1017" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E1017" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F1017" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G1017" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1017" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1018" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C1018" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D1018" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E1018" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F1018" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G1018" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1018" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C1019" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D1019" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G1019" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1019" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E1020" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F1020" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G1020" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1020" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/WIP__translation_dictionary.xlsx
+++ b/WIP__translation_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ldmay/Box Sync/Documents/MADC_Data_Unification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E801A3-3619-5949-8C06-BC9AC88F1505}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CA6AAF-121F-754B-9626-CD28912C978D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12800" yWindow="0" windowWidth="25600" windowHeight="24000" xr2:uid="{35E1C540-DD7A-FA43-A99D-8F94692F3DD6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5914" uniqueCount="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6396" uniqueCount="1222">
   <si>
     <t>form_u2</t>
   </si>
@@ -3444,6 +3444,261 @@
   </si>
   <si>
     <t>ivp_b6_complete</t>
+  </si>
+  <si>
+    <t>b7ptid</t>
+  </si>
+  <si>
+    <t>b7pkt_type</t>
+  </si>
+  <si>
+    <t>b7_formver</t>
+  </si>
+  <si>
+    <t>b7form_date</t>
+  </si>
+  <si>
+    <t>b7_visit_month</t>
+  </si>
+  <si>
+    <t>b7_visit_day</t>
+  </si>
+  <si>
+    <t>b7_visit_yr</t>
+  </si>
+  <si>
+    <t>b7visit_num</t>
+  </si>
+  <si>
+    <t>b7_examiner</t>
+  </si>
+  <si>
+    <t>bills</t>
+  </si>
+  <si>
+    <t>taxes</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>games</t>
+  </si>
+  <si>
+    <t>stove</t>
+  </si>
+  <si>
+    <t>mealprep</t>
+  </si>
+  <si>
+    <t>events</t>
+  </si>
+  <si>
+    <t>payattn</t>
+  </si>
+  <si>
+    <t>remdates</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>form_b7_functional_assessment_faq_complete</t>
+  </si>
+  <si>
+    <t>form_b7_functional_assessment_faq</t>
+  </si>
+  <si>
+    <t>fas_score</t>
+  </si>
+  <si>
+    <t>ivp_b7_complete</t>
+  </si>
+  <si>
+    <t>ivp_b7</t>
+  </si>
+  <si>
+    <t>b8ptid</t>
+  </si>
+  <si>
+    <t>b8pkt_type</t>
+  </si>
+  <si>
+    <t>b8_formver</t>
+  </si>
+  <si>
+    <t>b8form_date</t>
+  </si>
+  <si>
+    <t>b8_visit_month</t>
+  </si>
+  <si>
+    <t>b8_visit_day</t>
+  </si>
+  <si>
+    <t>b8_visit_yr</t>
+  </si>
+  <si>
+    <t>b8visit_num</t>
+  </si>
+  <si>
+    <t>b8_examiner</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>focldef</t>
+  </si>
+  <si>
+    <t>gaitdis</t>
+  </si>
+  <si>
+    <t>eyemove</t>
+  </si>
+  <si>
+    <t>form_b8_physical_neurological_exam_findings_complete</t>
+  </si>
+  <si>
+    <t>form_b8_physical_neurological_exam_findings</t>
+  </si>
+  <si>
+    <t>normexam</t>
+  </si>
+  <si>
+    <t>parksign</t>
+  </si>
+  <si>
+    <t>resttrl</t>
+  </si>
+  <si>
+    <t>resttrr</t>
+  </si>
+  <si>
+    <t>slowingl</t>
+  </si>
+  <si>
+    <t>slowingr</t>
+  </si>
+  <si>
+    <t>rigidl</t>
+  </si>
+  <si>
+    <t>rigidr</t>
+  </si>
+  <si>
+    <t>brady</t>
+  </si>
+  <si>
+    <t>parkgait</t>
+  </si>
+  <si>
+    <t>postinst</t>
+  </si>
+  <si>
+    <t>cvdsigns</t>
+  </si>
+  <si>
+    <t>cortdef</t>
+  </si>
+  <si>
+    <t>sivdfind</t>
+  </si>
+  <si>
+    <t>cvdmotl</t>
+  </si>
+  <si>
+    <t>cvdmotr</t>
+  </si>
+  <si>
+    <t>cortvisl</t>
+  </si>
+  <si>
+    <t>cortvisr</t>
+  </si>
+  <si>
+    <t>somatl</t>
+  </si>
+  <si>
+    <t>somatr</t>
+  </si>
+  <si>
+    <t>postcort</t>
+  </si>
+  <si>
+    <t>pspcbs</t>
+  </si>
+  <si>
+    <t>eyepsp</t>
+  </si>
+  <si>
+    <t>dyspsp</t>
+  </si>
+  <si>
+    <t>axialpsp</t>
+  </si>
+  <si>
+    <t>gaitpsp</t>
+  </si>
+  <si>
+    <t>apraxsp</t>
+  </si>
+  <si>
+    <t>apraxl</t>
+  </si>
+  <si>
+    <t>apraxr</t>
+  </si>
+  <si>
+    <t>cortsenl</t>
+  </si>
+  <si>
+    <t>cortsenr</t>
+  </si>
+  <si>
+    <t>ataxl</t>
+  </si>
+  <si>
+    <t>ataxr</t>
+  </si>
+  <si>
+    <t>akuebknk</t>
+  </si>
+  <si>
+    <t>alienlmr</t>
+  </si>
+  <si>
+    <t>dystonl</t>
+  </si>
+  <si>
+    <t>dystonr</t>
+  </si>
+  <si>
+    <t>myocllt</t>
+  </si>
+  <si>
+    <t>myoclrt</t>
+  </si>
+  <si>
+    <t>alsfind</t>
+  </si>
+  <si>
+    <t>gaitnph</t>
+  </si>
+  <si>
+    <t>othneur</t>
+  </si>
+  <si>
+    <t>othneurx</t>
+  </si>
+  <si>
+    <t>alienlml</t>
+  </si>
+  <si>
+    <t>ivp_b8_complete</t>
+  </si>
+  <si>
+    <t>ivp_b8</t>
   </si>
 </sst>
 </file>
@@ -3813,19 +4068,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE876574-F5A4-7C48-BC15-5FEB63248101}">
-  <dimension ref="A1:J1020"/>
+  <dimension ref="A1:J1098"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A977" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D995" sqref="D995"/>
+      <pane ySplit="1" topLeftCell="A1060" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1099" sqref="A1099"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
@@ -23681,6 +23936,1608 @@
         <v>11</v>
       </c>
     </row>
+    <row r="1021" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1021" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B1021" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1021" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D1021" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G1021" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1021" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1022" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B1022" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1022" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D1022" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G1022" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1022" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1023" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B1023" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1023" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D1023" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G1023" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1023" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1024" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B1024" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1024" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1024" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G1024" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1024" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1025" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B1025" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1025" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D1025" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G1025" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1025" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1026" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B1026" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1026" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D1026" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G1026" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1026" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1027" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B1027" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1027" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D1027" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G1027" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1027" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1028" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1028" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1028" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D1028" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G1028" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1028" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1029" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B1029" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1029" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D1029" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G1029" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1029" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1030" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B1030" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1030" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D1030" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F1030" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G1030" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1030" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1031" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B1031" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1031" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D1031" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F1031" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G1031" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1031" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1032" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B1032" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1032" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D1032" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F1032" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G1032" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1032" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1033" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B1033" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1033" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D1033" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F1033" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G1033" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1033" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1034" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B1034" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1034" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D1034" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F1034" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G1034" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1034" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1035" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B1035" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1035" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D1035" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F1035" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G1035" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1035" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1036" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B1036" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1036" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D1036" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F1036" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G1036" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1036" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1037" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B1037" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1037" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D1037" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F1037" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G1037" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1037" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1038" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B1038" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1038" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D1038" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F1038" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G1038" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1038" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1039" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B1039" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1039" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D1039" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F1039" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G1039" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1039" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1040" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B1040" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1040" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D1040" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F1040" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G1040" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1040" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E1041" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F1041" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G1041" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1041" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1042" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B1042" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C1042" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D1042" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G1042" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1042" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1043" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1043" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C1043" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D1043" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G1043" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1043" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1044" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B1044" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C1044" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D1044" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G1044" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1044" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1045" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B1045" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C1045" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D1045" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G1045" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1045" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1046" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B1046" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C1046" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D1046" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G1046" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1046" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1047" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B1047" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C1047" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D1047" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G1047" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1047" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1048" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B1048" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C1048" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D1048" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G1048" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1048" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1049" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B1049" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C1049" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D1049" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G1049" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1049" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1050" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B1050" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C1050" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D1050" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G1050" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1050" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1051" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B1051" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G1051" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1051" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1052" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B1052" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G1052" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1052" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1053" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B1053" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G1053" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1053" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1054" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B1054" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G1054" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1054" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1055" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B1055" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C1055" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D1055" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F1055" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1055" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1055" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C1056" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D1056" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F1056" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1056" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1056" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1057" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1057" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D1057" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F1057" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1057" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1057" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1058" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1058" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D1058" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F1058" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1058" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1058" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1059" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1059" s="3" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D1059" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F1059" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1059" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1059" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1060" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1060" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D1060" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F1060" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1060" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1060" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1061" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1061" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D1061" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F1061" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1061" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1061" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1062" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1062" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D1062" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F1062" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1062" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1062" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1063" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1063" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D1063" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F1063" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1063" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1063" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1064" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1064" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D1064" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F1064" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1064" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1064" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1065" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1065" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D1065" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F1065" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1065" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1065" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1066" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1066" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D1066" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1066" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F1066" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1066" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1066" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1067" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1067" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D1067" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1067" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1067" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1067" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1067" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1068" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1068" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D1068" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1068" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F1068" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1068" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1068" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1069" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1069" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D1069" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1069" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F1069" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1069" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1069" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1070" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1070" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D1070" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F1070" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1070" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1070" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1071" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1071" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D1071" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1071" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F1071" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1071" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1071" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1072" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1072" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D1072" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1072" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F1072" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1072" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1072" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1073" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1073" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D1073" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1073" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F1073" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1073" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1073" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1074" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1074" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D1074" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1074" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F1074" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1074" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1074" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1075" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1075" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D1075" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1075" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F1075" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1075" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1075" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1076" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1076" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D1076" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1076" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F1076" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1076" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1076" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1077" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1077" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D1077" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1077" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F1077" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1077" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1077" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1078" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1078" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D1078" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F1078" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1078" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1078" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1079" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1079" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D1079" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1079" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F1079" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1079" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1079" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1080" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1080" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D1080" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1080" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F1080" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1080" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1080" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1081" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1081" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D1081" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F1081" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1081" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1081" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1082" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1082" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D1082" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1082" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F1082" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1082" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1082" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1083" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1083" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D1083" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1083" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F1083" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1083" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1083" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1084" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1084" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D1084" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1084" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F1084" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1084" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1084" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1085" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1085" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D1085" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1085" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F1085" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1085" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1085" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1086" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1086" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D1086" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1086" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F1086" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1086" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1086" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1087" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1087" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D1087" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1087" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1087" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1087" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1087" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1088" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1088" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D1088" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1088" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F1088" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1088" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1088" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1089" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1089" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D1089" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1089" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F1089" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1089" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1089" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1090" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1090" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D1090" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1090" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F1090" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1090" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1090" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1091" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1091" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D1091" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1091" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F1091" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1091" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1091" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1092" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1092" s="3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D1092" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1092" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F1092" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1092" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1092" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1093" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1093" s="3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D1093" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1093" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F1093" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1093" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1093" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1094" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1094" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D1094" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1094" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F1094" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1094" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1094" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1095" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1095" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D1095" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1095" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F1095" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1095" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1095" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1096" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1096" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D1096" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1096" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F1096" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1096" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1096" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1097" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1097" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D1097" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1097" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F1097" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1097" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1097" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1098" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1098" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D1098" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1098" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F1098" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1098" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1098" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/WIP__translation_dictionary.xlsx
+++ b/WIP__translation_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ldmay/Box Sync/Documents/MADC_Data_Unification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CA6AAF-121F-754B-9626-CD28912C978D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921AFE63-6974-A946-AC87-F1B83730AC0C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="0" windowWidth="25600" windowHeight="24000" xr2:uid="{35E1C540-DD7A-FA43-A99D-8F94692F3DD6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{35E1C540-DD7A-FA43-A99D-8F94692F3DD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6396" uniqueCount="1222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6890" uniqueCount="1299">
   <si>
     <t>form_u2</t>
   </si>
@@ -3699,6 +3699,237 @@
   </si>
   <si>
     <t>ivp_b8</t>
+  </si>
+  <si>
+    <t>b9ptid</t>
+  </si>
+  <si>
+    <t>b9pkt_type</t>
+  </si>
+  <si>
+    <t>b9_formver</t>
+  </si>
+  <si>
+    <t>b9form_date</t>
+  </si>
+  <si>
+    <t>b9_visit_month</t>
+  </si>
+  <si>
+    <t>b9_visit_day</t>
+  </si>
+  <si>
+    <t>b9_visit_yr</t>
+  </si>
+  <si>
+    <t>b9visit_num</t>
+  </si>
+  <si>
+    <t>b9_examiner</t>
+  </si>
+  <si>
+    <t>b9chg</t>
+  </si>
+  <si>
+    <t>decsub</t>
+  </si>
+  <si>
+    <t>decin</t>
+  </si>
+  <si>
+    <t>decclin</t>
+  </si>
+  <si>
+    <t>decage</t>
+  </si>
+  <si>
+    <t>cogmem</t>
+  </si>
+  <si>
+    <t>cogjudg</t>
+  </si>
+  <si>
+    <t>coglang</t>
+  </si>
+  <si>
+    <t>cogvis</t>
+  </si>
+  <si>
+    <t>cogattn</t>
+  </si>
+  <si>
+    <t>cogfluc</t>
+  </si>
+  <si>
+    <t>cogothr</t>
+  </si>
+  <si>
+    <t>cogothrx</t>
+  </si>
+  <si>
+    <t>cogfrst</t>
+  </si>
+  <si>
+    <t>cogfrstx</t>
+  </si>
+  <si>
+    <t>cogmode</t>
+  </si>
+  <si>
+    <t>cogmodex</t>
+  </si>
+  <si>
+    <t>beapathy</t>
+  </si>
+  <si>
+    <t>bedep</t>
+  </si>
+  <si>
+    <t>bevhall</t>
+  </si>
+  <si>
+    <t>bevwell</t>
+  </si>
+  <si>
+    <t>beahall</t>
+  </si>
+  <si>
+    <t>bedel</t>
+  </si>
+  <si>
+    <t>bedisin</t>
+  </si>
+  <si>
+    <t>beirrit</t>
+  </si>
+  <si>
+    <t>beagit</t>
+  </si>
+  <si>
+    <t>beperch</t>
+  </si>
+  <si>
+    <t>berem</t>
+  </si>
+  <si>
+    <t>beothr</t>
+  </si>
+  <si>
+    <t>beothrx</t>
+  </si>
+  <si>
+    <t>befrst</t>
+  </si>
+  <si>
+    <t>befrstx</t>
+  </si>
+  <si>
+    <t>bemode</t>
+  </si>
+  <si>
+    <t>bemodex</t>
+  </si>
+  <si>
+    <t>mogait</t>
+  </si>
+  <si>
+    <t>mofalls</t>
+  </si>
+  <si>
+    <t>motrem</t>
+  </si>
+  <si>
+    <t>moslow</t>
+  </si>
+  <si>
+    <t>mofrst</t>
+  </si>
+  <si>
+    <t>momode</t>
+  </si>
+  <si>
+    <t>momodex</t>
+  </si>
+  <si>
+    <t>momopark</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>frstchg</t>
+  </si>
+  <si>
+    <t>form_b9_clinician_judgment_of_symptoms_complete</t>
+  </si>
+  <si>
+    <t>form_b9_clinician_judgment_of_symptoms</t>
+  </si>
+  <si>
+    <t>decclcog</t>
+  </si>
+  <si>
+    <t>cogori</t>
+  </si>
+  <si>
+    <t>cogfpred</t>
+  </si>
+  <si>
+    <t>cogfprex</t>
+  </si>
+  <si>
+    <t>decclbe</t>
+  </si>
+  <si>
+    <t>bevhago</t>
+  </si>
+  <si>
+    <t>beremago</t>
+  </si>
+  <si>
+    <t>beanx</t>
+  </si>
+  <si>
+    <t>befpred</t>
+  </si>
+  <si>
+    <t>befpredx</t>
+  </si>
+  <si>
+    <t>beage</t>
+  </si>
+  <si>
+    <t>decclmot</t>
+  </si>
+  <si>
+    <t>parkage</t>
+  </si>
+  <si>
+    <t>momoals</t>
+  </si>
+  <si>
+    <t>alsage</t>
+  </si>
+  <si>
+    <t>moage</t>
+  </si>
+  <si>
+    <t>lbdeval</t>
+  </si>
+  <si>
+    <t>ftldeval</t>
+  </si>
+  <si>
+    <t>cogflago</t>
+  </si>
+  <si>
+    <t>b9changes</t>
+  </si>
+  <si>
+    <t>ivp_b9_complete</t>
+  </si>
+  <si>
+    <t>ivp_b9</t>
   </si>
 </sst>
 </file>
@@ -4068,22 +4299,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE876574-F5A4-7C48-BC15-5FEB63248101}">
-  <dimension ref="A1:J1098"/>
+  <dimension ref="A1:J1166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1060" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1099" sqref="A1099"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1098" sqref="I1098:I1166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="49.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="76.5" style="3" bestFit="1" customWidth="1"/>
@@ -25338,7 +25569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1089" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="1089" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1089" s="3" t="s">
         <v>1209</v>
       </c>
@@ -25358,7 +25589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1090" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="1090" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1090" s="3" t="s">
         <v>1210</v>
       </c>
@@ -25378,7 +25609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1091" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="1091" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1091" s="3" t="s">
         <v>1211</v>
       </c>
@@ -25398,7 +25629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1092" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="1092" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1092" s="3" t="s">
         <v>1212</v>
       </c>
@@ -25418,7 +25649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1093" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="1093" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1093" s="3" t="s">
         <v>1213</v>
       </c>
@@ -25438,7 +25669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1094" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="1094" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1094" s="3" t="s">
         <v>1214</v>
       </c>
@@ -25458,7 +25689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1095" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="1095" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1095" s="3" t="s">
         <v>1215</v>
       </c>
@@ -25478,7 +25709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1096" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="1096" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1096" s="3" t="s">
         <v>1216</v>
       </c>
@@ -25498,7 +25729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1097" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="1097" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1097" s="3" t="s">
         <v>1217</v>
       </c>
@@ -25518,7 +25749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1098" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="1098" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1098" s="3" t="s">
         <v>1218</v>
       </c>
@@ -25535,6 +25766,1624 @@
         <v>9</v>
       </c>
       <c r="I1098" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1099" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B1099" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1099" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D1099" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G1099" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1099" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1100" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1100" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1100" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D1100" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G1100" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1101" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B1101" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1101" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D1101" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G1101" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1102" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B1102" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1102" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D1102" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G1102" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1102" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1103" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B1103" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1103" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D1103" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G1103" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1103" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1104" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B1104" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1104" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D1104" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G1104" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1104" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1105" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B1105" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1105" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D1105" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G1105" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1105" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1106" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B1106" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1106" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D1106" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G1106" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1106" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1107" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B1107" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1107" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D1107" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G1107" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1107" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1108" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B1108" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1108" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F1108" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1108" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1108" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1109" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B1109" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1109" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D1109" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1109" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F1109" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1109" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1109" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1110" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B1110" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1110" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D1110" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1110" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F1110" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1110" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1110" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1111" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B1111" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1111" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D1111" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1111" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F1111" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1111" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1111" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1112" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B1112" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1112" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D1112" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1112" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F1112" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1112" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1112" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1113" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1113" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1113" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D1113" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1113" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F1113" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1113" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1113" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1114" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B1114" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1114" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D1114" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1114" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1114" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1114" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1114" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1115" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B1115" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1115" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D1115" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1115" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F1115" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1115" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1115" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1116" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B1116" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1116" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D1116" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1116" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F1116" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1116" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1116" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1117" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B1117" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1117" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D1117" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1117" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F1117" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1117" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1117" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1118" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B1118" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1118" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D1118" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1118" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F1118" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1118" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1118" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1119" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B1119" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1119" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D1119" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1119" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F1119" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1119" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1119" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1120" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B1120" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1120" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D1120" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1120" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F1120" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1120" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1120" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1121" s="3" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B1121" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1121" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D1121" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1121" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F1121" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1121" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1121" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1122" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B1122" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1122" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D1122" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1122" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F1122" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1122" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1122" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1123" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B1123" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1123" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D1123" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1123" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F1123" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1123" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1123" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1124" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B1124" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1124" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D1124" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1124" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F1124" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1124" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1124" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1125" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B1125" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1125" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D1125" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1125" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1125" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1125" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1125" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1126" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B1126" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1126" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D1126" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1126" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F1126" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1126" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1126" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1127" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1127" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1127" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D1127" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1127" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F1127" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1127" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1127" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1128" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B1128" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1128" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D1128" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1128" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F1128" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1128" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1128" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1129" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B1129" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1129" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D1129" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1129" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F1129" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1129" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1129" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1130" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B1130" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1130" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D1130" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1130" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F1130" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1130" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1130" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1131" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B1131" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1131" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D1131" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1131" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F1131" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1131" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1131" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1132" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B1132" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1132" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D1132" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1132" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F1132" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1132" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1132" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1133" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B1133" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1133" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D1133" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1133" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F1133" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1133" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1133" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1134" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B1134" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1134" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D1134" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1134" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F1134" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1134" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1134" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1135" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B1135" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1135" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D1135" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1135" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F1135" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1135" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1135" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1136" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1136" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1136" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D1136" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1136" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F1136" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1136" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1136" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1137" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1137" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1137" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D1137" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1137" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F1137" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1137" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1137" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1138" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1138" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1138" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D1138" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1138" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F1138" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1138" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1138" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1139" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B1139" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1139" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D1139" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1139" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F1139" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1139" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1139" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1140" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1140" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1140" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D1140" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1140" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F1140" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1140" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1140" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1141" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1141" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1141" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D1141" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1141" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F1141" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1141" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1141" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1142" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1142" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1142" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D1142" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1142" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F1142" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1142" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1142" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1143" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B1143" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1143" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D1143" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1143" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F1143" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1143" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1143" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1144" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1144" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1144" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D1144" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1144" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F1144" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1144" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1144" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1145" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B1145" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1145" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D1145" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1145" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F1145" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1145" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1145" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1146" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B1146" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1146" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D1146" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1146" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F1146" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1146" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1146" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1147" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B1147" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1147" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D1147" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1147" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F1147" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1147" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1147" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1148" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B1148" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1148" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D1148" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1148" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F1148" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1148" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1148" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1149" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B1149" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1149" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D1149" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1149" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F1149" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1149" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1149" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1150" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B1150" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1150" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D1150" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1150" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F1150" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1150" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1150" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1151" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B1151" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1151" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D1151" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1151" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F1151" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1151" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1151" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1152" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B1152" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1152" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D1152" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1152" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F1152" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1152" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1152" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1153" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1153" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D1153" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1153" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F1153" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1153" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1153" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1154" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1154" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D1154" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1154" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F1154" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1154" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1154" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1155" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1155" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D1155" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1155" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F1155" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1155" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1155" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1156" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1156" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D1156" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1156" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F1156" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1156" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1156" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1157" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1157" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D1157" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1157" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F1157" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1157" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1157" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1158" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1158" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D1158" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1158" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F1158" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1158" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1158" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1159" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1159" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D1159" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1159" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F1159" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1159" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1159" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1160" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1160" s="3" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D1160" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1160" s="3" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F1160" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1160" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1160" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1161" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1161" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D1161" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1161" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F1161" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1161" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1161" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1162" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1162" s="3" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D1162" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1162" s="3" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F1162" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1162" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1162" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1163" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1163" s="3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D1163" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1163" s="3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F1163" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1163" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1163" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1164" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1164" s="3" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D1164" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1164" s="3" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F1164" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1164" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1164" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1165" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1165" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D1165" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1165" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F1165" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1165" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1165" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1166" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E1166" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F1166" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1166" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1166" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/WIP__translation_dictionary.xlsx
+++ b/WIP__translation_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ldmay/Box Sync/Documents/MADC_Data_Unification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921AFE63-6974-A946-AC87-F1B83730AC0C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCF6CD7-F2A1-7B4F-9352-338BC26E5671}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{35E1C540-DD7A-FA43-A99D-8F94692F3DD6}"/>
+    <workbookView xWindow="12800" yWindow="0" windowWidth="25600" windowHeight="24000" xr2:uid="{35E1C540-DD7A-FA43-A99D-8F94692F3DD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6890" uniqueCount="1299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8808" uniqueCount="1651">
   <si>
     <t>form_u2</t>
   </si>
@@ -3930,6 +3930,1062 @@
   </si>
   <si>
     <t>ivp_b9</t>
+  </si>
+  <si>
+    <t>c1ptid</t>
+  </si>
+  <si>
+    <t>c1pkt_type</t>
+  </si>
+  <si>
+    <t>c1_formver</t>
+  </si>
+  <si>
+    <t>c1form_date</t>
+  </si>
+  <si>
+    <t>c1_visit_month</t>
+  </si>
+  <si>
+    <t>c1_visit_day</t>
+  </si>
+  <si>
+    <t>c1_visit_yr</t>
+  </si>
+  <si>
+    <t>c1_visit_num</t>
+  </si>
+  <si>
+    <t>c1_examiner</t>
+  </si>
+  <si>
+    <t>mmsecomp</t>
+  </si>
+  <si>
+    <t>mmsereas</t>
+  </si>
+  <si>
+    <t>mmseloc</t>
+  </si>
+  <si>
+    <t>mmselan</t>
+  </si>
+  <si>
+    <t>mmselanx</t>
+  </si>
+  <si>
+    <t>mmsevis</t>
+  </si>
+  <si>
+    <t>mmsehear</t>
+  </si>
+  <si>
+    <t>mmseorda</t>
+  </si>
+  <si>
+    <t>mmseorlo</t>
+  </si>
+  <si>
+    <t>pentagon</t>
+  </si>
+  <si>
+    <t>mmse</t>
+  </si>
+  <si>
+    <t>npsycloc</t>
+  </si>
+  <si>
+    <t>npsylan</t>
+  </si>
+  <si>
+    <t>npsylanx</t>
+  </si>
+  <si>
+    <t>logimo</t>
+  </si>
+  <si>
+    <t>logiday</t>
+  </si>
+  <si>
+    <t>logiyr</t>
+  </si>
+  <si>
+    <t>logiprev</t>
+  </si>
+  <si>
+    <t>logimem</t>
+  </si>
+  <si>
+    <t>udsbentc</t>
+  </si>
+  <si>
+    <t>digif</t>
+  </si>
+  <si>
+    <t>digiflen</t>
+  </si>
+  <si>
+    <t>digib</t>
+  </si>
+  <si>
+    <t>digiblen</t>
+  </si>
+  <si>
+    <t>animals</t>
+  </si>
+  <si>
+    <t>veg</t>
+  </si>
+  <si>
+    <t>traila</t>
+  </si>
+  <si>
+    <t>trailarr</t>
+  </si>
+  <si>
+    <t>trailali</t>
+  </si>
+  <si>
+    <t>trailb</t>
+  </si>
+  <si>
+    <t>trailbrr</t>
+  </si>
+  <si>
+    <t>trailbli</t>
+  </si>
+  <si>
+    <t>wais</t>
+  </si>
+  <si>
+    <t>memunits</t>
+  </si>
+  <si>
+    <t>memtime</t>
+  </si>
+  <si>
+    <t>udsbentd</t>
+  </si>
+  <si>
+    <t>udsbenrs</t>
+  </si>
+  <si>
+    <t>boston</t>
+  </si>
+  <si>
+    <t>udsverfc</t>
+  </si>
+  <si>
+    <t>udsverfn</t>
+  </si>
+  <si>
+    <t>udsvernf</t>
+  </si>
+  <si>
+    <t>udsverlc</t>
+  </si>
+  <si>
+    <t>udsverlr</t>
+  </si>
+  <si>
+    <t>udsverln</t>
+  </si>
+  <si>
+    <t>udsvertn</t>
+  </si>
+  <si>
+    <t>udsverte</t>
+  </si>
+  <si>
+    <t>udsverti</t>
+  </si>
+  <si>
+    <t>cogstat</t>
+  </si>
+  <si>
+    <t>form_c1_mmse_and_npsych_complete</t>
+  </si>
+  <si>
+    <t>form_c1_mmse_and_npsych</t>
+  </si>
+  <si>
+    <t>c1c2ptid</t>
+  </si>
+  <si>
+    <t>c1c2pkt_type</t>
+  </si>
+  <si>
+    <t>c1c2_formver</t>
+  </si>
+  <si>
+    <t>c1c2form_date</t>
+  </si>
+  <si>
+    <t>c1c2_visit_month</t>
+  </si>
+  <si>
+    <t>c1c2_visit_day</t>
+  </si>
+  <si>
+    <t>c1c2_visit_yr</t>
+  </si>
+  <si>
+    <t>c1c2_visit_num</t>
+  </si>
+  <si>
+    <t>c1c2_examiner</t>
+  </si>
+  <si>
+    <t>mocacomp</t>
+  </si>
+  <si>
+    <t>mocareas</t>
+  </si>
+  <si>
+    <t>mocalan</t>
+  </si>
+  <si>
+    <t>mocaloc</t>
+  </si>
+  <si>
+    <t>mocalanx</t>
+  </si>
+  <si>
+    <t>mocavis</t>
+  </si>
+  <si>
+    <t>mocahear</t>
+  </si>
+  <si>
+    <t>mocatots</t>
+  </si>
+  <si>
+    <t>mocatrai</t>
+  </si>
+  <si>
+    <t>mocacube</t>
+  </si>
+  <si>
+    <t>mocacloc</t>
+  </si>
+  <si>
+    <t>mocaclon</t>
+  </si>
+  <si>
+    <t>mocacloh</t>
+  </si>
+  <si>
+    <t>mocanami</t>
+  </si>
+  <si>
+    <t>mocaregi</t>
+  </si>
+  <si>
+    <t>mocadigi</t>
+  </si>
+  <si>
+    <t>mocalett</t>
+  </si>
+  <si>
+    <t>mocaser7</t>
+  </si>
+  <si>
+    <t>mocarepe</t>
+  </si>
+  <si>
+    <t>mocaflue</t>
+  </si>
+  <si>
+    <t>mocaabst</t>
+  </si>
+  <si>
+    <t>mocarecn</t>
+  </si>
+  <si>
+    <t>mocarecc</t>
+  </si>
+  <si>
+    <t>mocarecr</t>
+  </si>
+  <si>
+    <t>mocaordt</t>
+  </si>
+  <si>
+    <t>mocaormo</t>
+  </si>
+  <si>
+    <t>mocaoryr</t>
+  </si>
+  <si>
+    <t>mocaordy</t>
+  </si>
+  <si>
+    <t>mocaorpl</t>
+  </si>
+  <si>
+    <t>mocaorct</t>
+  </si>
+  <si>
+    <t>craftvrs</t>
+  </si>
+  <si>
+    <t>crafturs</t>
+  </si>
+  <si>
+    <t>digforct</t>
+  </si>
+  <si>
+    <t>digforsl</t>
+  </si>
+  <si>
+    <t>digbacct</t>
+  </si>
+  <si>
+    <t>digbacls</t>
+  </si>
+  <si>
+    <t>trailsbli</t>
+  </si>
+  <si>
+    <t>craftdvr</t>
+  </si>
+  <si>
+    <t>craftdre</t>
+  </si>
+  <si>
+    <t>craftdti</t>
+  </si>
+  <si>
+    <t>craftcue</t>
+  </si>
+  <si>
+    <t>minttots</t>
+  </si>
+  <si>
+    <t>minttotw</t>
+  </si>
+  <si>
+    <t>mintscng</t>
+  </si>
+  <si>
+    <t>mintscnc</t>
+  </si>
+  <si>
+    <t>mintpcng</t>
+  </si>
+  <si>
+    <t>mintpcnc</t>
+  </si>
+  <si>
+    <t>form_c1_c2_mmse_and_npsych_complete</t>
+  </si>
+  <si>
+    <t>form_c1_c2_mmse_and_npsych</t>
+  </si>
+  <si>
+    <t>npsycloc_c2</t>
+  </si>
+  <si>
+    <t>npsylan_c2</t>
+  </si>
+  <si>
+    <t>npsylanx_c2</t>
+  </si>
+  <si>
+    <t>animals_c2</t>
+  </si>
+  <si>
+    <t>veg_c2</t>
+  </si>
+  <si>
+    <t>traila_c2</t>
+  </si>
+  <si>
+    <t>trailarr_c2</t>
+  </si>
+  <si>
+    <t>trailali_c2</t>
+  </si>
+  <si>
+    <t>trailb_c2</t>
+  </si>
+  <si>
+    <t>trailbrr_c2</t>
+  </si>
+  <si>
+    <t>trailbli_c2</t>
+  </si>
+  <si>
+    <t>cogstat_c2</t>
+  </si>
+  <si>
+    <t>udsbentdz</t>
+  </si>
+  <si>
+    <t>mocaz</t>
+  </si>
+  <si>
+    <t>digforctz</t>
+  </si>
+  <si>
+    <t>digforspanz</t>
+  </si>
+  <si>
+    <t>digbacctz</t>
+  </si>
+  <si>
+    <t>digbacspanz</t>
+  </si>
+  <si>
+    <t>traila_c2z</t>
+  </si>
+  <si>
+    <t>udsbentcz</t>
+  </si>
+  <si>
+    <t>udsverfcz</t>
+  </si>
+  <si>
+    <t>udsverlcz</t>
+  </si>
+  <si>
+    <t>mintpcngz</t>
+  </si>
+  <si>
+    <t>craftvrsz</t>
+  </si>
+  <si>
+    <t>craftparaz</t>
+  </si>
+  <si>
+    <t>animals_c2z</t>
+  </si>
+  <si>
+    <t>veg_c2z</t>
+  </si>
+  <si>
+    <t>minttotsz</t>
+  </si>
+  <si>
+    <t>craftdvrz</t>
+  </si>
+  <si>
+    <t>craftdrez</t>
+  </si>
+  <si>
+    <t>trailb_c2z</t>
+  </si>
+  <si>
+    <t>ivp_c2_complete</t>
+  </si>
+  <si>
+    <t>ivp_c2</t>
+  </si>
+  <si>
+    <t>Artificial field to match similar fields from UDS 2 C1 and UDS 3 (Archive)</t>
+  </si>
+  <si>
+    <t>Mistake field? Compare `trailsbli` above.</t>
+  </si>
+  <si>
+    <t>d1ptid</t>
+  </si>
+  <si>
+    <t>d1pkt_type</t>
+  </si>
+  <si>
+    <t>d1_formver</t>
+  </si>
+  <si>
+    <t>d1form_date</t>
+  </si>
+  <si>
+    <t>d1_visit_month</t>
+  </si>
+  <si>
+    <t>d1_visit_day</t>
+  </si>
+  <si>
+    <t>d1_visit_yr</t>
+  </si>
+  <si>
+    <t>d1visit_num</t>
+  </si>
+  <si>
+    <t>d1_examiner</t>
+  </si>
+  <si>
+    <t>whodiddx</t>
+  </si>
+  <si>
+    <t>normcog</t>
+  </si>
+  <si>
+    <t>demented</t>
+  </si>
+  <si>
+    <t>mciamem</t>
+  </si>
+  <si>
+    <t>mciaplus1</t>
+  </si>
+  <si>
+    <t>mciaplan___1</t>
+  </si>
+  <si>
+    <t>mciaplan___0</t>
+  </si>
+  <si>
+    <t>mciapatt___1</t>
+  </si>
+  <si>
+    <t>mciapatt___0</t>
+  </si>
+  <si>
+    <t>mciapex___1</t>
+  </si>
+  <si>
+    <t>mciapex___0</t>
+  </si>
+  <si>
+    <t>mciapvis___1</t>
+  </si>
+  <si>
+    <t>mciapvis___0</t>
+  </si>
+  <si>
+    <t>mcinon1</t>
+  </si>
+  <si>
+    <t>mcin1lan___1</t>
+  </si>
+  <si>
+    <t>mcin1lan___0</t>
+  </si>
+  <si>
+    <t>mcin1att___1</t>
+  </si>
+  <si>
+    <t>mcin1att___0</t>
+  </si>
+  <si>
+    <t>mcin1ex___1</t>
+  </si>
+  <si>
+    <t>mcin1ex___0</t>
+  </si>
+  <si>
+    <t>mcin1vis___1</t>
+  </si>
+  <si>
+    <t>mcin1vis___0</t>
+  </si>
+  <si>
+    <t>mcinon2</t>
+  </si>
+  <si>
+    <t>mcin2lan___1</t>
+  </si>
+  <si>
+    <t>mcin2lan___0</t>
+  </si>
+  <si>
+    <t>mcin2att___1</t>
+  </si>
+  <si>
+    <t>mcin2att___0</t>
+  </si>
+  <si>
+    <t>mcin2ex___1</t>
+  </si>
+  <si>
+    <t>mcin2ex___0</t>
+  </si>
+  <si>
+    <t>mcin2vis___1</t>
+  </si>
+  <si>
+    <t>mcin2vis___0</t>
+  </si>
+  <si>
+    <t>impnomci</t>
+  </si>
+  <si>
+    <t>probad</t>
+  </si>
+  <si>
+    <t>probadif</t>
+  </si>
+  <si>
+    <t>possad_present</t>
+  </si>
+  <si>
+    <t>possadif</t>
+  </si>
+  <si>
+    <t>dlb</t>
+  </si>
+  <si>
+    <t>dlbif</t>
+  </si>
+  <si>
+    <t>vasc</t>
+  </si>
+  <si>
+    <t>vascif</t>
+  </si>
+  <si>
+    <t>vascps</t>
+  </si>
+  <si>
+    <t>vascpsif</t>
+  </si>
+  <si>
+    <t>alcdem</t>
+  </si>
+  <si>
+    <t>alcdemif</t>
+  </si>
+  <si>
+    <t>demun</t>
+  </si>
+  <si>
+    <t>demunif</t>
+  </si>
+  <si>
+    <t>ftd_if_pres</t>
+  </si>
+  <si>
+    <t>ftdif</t>
+  </si>
+  <si>
+    <t>ppaph</t>
+  </si>
+  <si>
+    <t>ppaphif</t>
+  </si>
+  <si>
+    <t>pnaph</t>
+  </si>
+  <si>
+    <t>semdeman</t>
+  </si>
+  <si>
+    <t>semdemag</t>
+  </si>
+  <si>
+    <t>ppaothr</t>
+  </si>
+  <si>
+    <t>psp</t>
+  </si>
+  <si>
+    <t>pspif</t>
+  </si>
+  <si>
+    <t>cort</t>
+  </si>
+  <si>
+    <t>cortif</t>
+  </si>
+  <si>
+    <t>hunt</t>
+  </si>
+  <si>
+    <t>huntif</t>
+  </si>
+  <si>
+    <t>prion</t>
+  </si>
+  <si>
+    <t>prionif</t>
+  </si>
+  <si>
+    <t>meds</t>
+  </si>
+  <si>
+    <t>medsif</t>
+  </si>
+  <si>
+    <t>dysill</t>
+  </si>
+  <si>
+    <t>dysillif</t>
+  </si>
+  <si>
+    <t>dep</t>
+  </si>
+  <si>
+    <t>depif</t>
+  </si>
+  <si>
+    <t>othpsy</t>
+  </si>
+  <si>
+    <t>othpsyif</t>
+  </si>
+  <si>
+    <t>downs</t>
+  </si>
+  <si>
+    <t>downsif</t>
+  </si>
+  <si>
+    <t>park</t>
+  </si>
+  <si>
+    <t>parkif</t>
+  </si>
+  <si>
+    <t>stroke</t>
+  </si>
+  <si>
+    <t>strokeif</t>
+  </si>
+  <si>
+    <t>hyceph</t>
+  </si>
+  <si>
+    <t>hycephif</t>
+  </si>
+  <si>
+    <t>brninj</t>
+  </si>
+  <si>
+    <t>brninjif</t>
+  </si>
+  <si>
+    <t>neop</t>
+  </si>
+  <si>
+    <t>neopif</t>
+  </si>
+  <si>
+    <t>cogoth</t>
+  </si>
+  <si>
+    <t>cogothif</t>
+  </si>
+  <si>
+    <t>cogothx</t>
+  </si>
+  <si>
+    <t>cogoth2</t>
+  </si>
+  <si>
+    <t>cogoth2f</t>
+  </si>
+  <si>
+    <t>cogoth2x</t>
+  </si>
+  <si>
+    <t>cogoth3</t>
+  </si>
+  <si>
+    <t>cogoth3f</t>
+  </si>
+  <si>
+    <t>cogoth3x</t>
+  </si>
+  <si>
+    <t>form_d1_clinician_diagnosis_complete</t>
+  </si>
+  <si>
+    <t>form_d1_clinician_diagnosis</t>
+  </si>
+  <si>
+    <t>dxmethod</t>
+  </si>
+  <si>
+    <t>amndem</t>
+  </si>
+  <si>
+    <t>pca</t>
+  </si>
+  <si>
+    <t>ppasynt</t>
+  </si>
+  <si>
+    <t>ftdsyn</t>
+  </si>
+  <si>
+    <t>lbdsyn</t>
+  </si>
+  <si>
+    <t>namndem</t>
+  </si>
+  <si>
+    <t>mciaplus</t>
+  </si>
+  <si>
+    <t>mciaplan</t>
+  </si>
+  <si>
+    <t>mciapat</t>
+  </si>
+  <si>
+    <t>mciapex</t>
+  </si>
+  <si>
+    <t>mciapvis</t>
+  </si>
+  <si>
+    <t>mcin1lan</t>
+  </si>
+  <si>
+    <t>mcin1att</t>
+  </si>
+  <si>
+    <t>mcin1ex</t>
+  </si>
+  <si>
+    <t>mcin1vis</t>
+  </si>
+  <si>
+    <t>mcin2lan</t>
+  </si>
+  <si>
+    <t>mcin2att</t>
+  </si>
+  <si>
+    <t>mcin2ex</t>
+  </si>
+  <si>
+    <t>mcin2vis</t>
+  </si>
+  <si>
+    <t>amylpet</t>
+  </si>
+  <si>
+    <t>amylcsf</t>
+  </si>
+  <si>
+    <t>fdgad</t>
+  </si>
+  <si>
+    <t>hippatr</t>
+  </si>
+  <si>
+    <t>taupetad</t>
+  </si>
+  <si>
+    <t>csftau</t>
+  </si>
+  <si>
+    <t>fdgftld</t>
+  </si>
+  <si>
+    <t>tretftld</t>
+  </si>
+  <si>
+    <t>mrftld</t>
+  </si>
+  <si>
+    <t>datscan</t>
+  </si>
+  <si>
+    <t>othbiom</t>
+  </si>
+  <si>
+    <t>othbiomx</t>
+  </si>
+  <si>
+    <t>imaglinf</t>
+  </si>
+  <si>
+    <t>imaglac</t>
+  </si>
+  <si>
+    <t>imagmach</t>
+  </si>
+  <si>
+    <t>imagmich</t>
+  </si>
+  <si>
+    <t>imagmwmh</t>
+  </si>
+  <si>
+    <t>imagewmh</t>
+  </si>
+  <si>
+    <t>admut</t>
+  </si>
+  <si>
+    <t>ftldmut</t>
+  </si>
+  <si>
+    <t>othmut</t>
+  </si>
+  <si>
+    <t>othmutx</t>
+  </si>
+  <si>
+    <t>alzdis</t>
+  </si>
+  <si>
+    <t>alzdisif</t>
+  </si>
+  <si>
+    <t>lbdis</t>
+  </si>
+  <si>
+    <t>lbdif</t>
+  </si>
+  <si>
+    <t>msa</t>
+  </si>
+  <si>
+    <t>msaif</t>
+  </si>
+  <si>
+    <t>ftldmo</t>
+  </si>
+  <si>
+    <t>ftldmoif</t>
+  </si>
+  <si>
+    <t>ftldnos</t>
+  </si>
+  <si>
+    <t>ftldnoif</t>
+  </si>
+  <si>
+    <t>ftldsubt</t>
+  </si>
+  <si>
+    <t>ftldsubx</t>
+  </si>
+  <si>
+    <t>cvd</t>
+  </si>
+  <si>
+    <t>cvdif</t>
+  </si>
+  <si>
+    <t>prevstk</t>
+  </si>
+  <si>
+    <t>strokedec</t>
+  </si>
+  <si>
+    <t>stkimag</t>
+  </si>
+  <si>
+    <t>infnetw</t>
+  </si>
+  <si>
+    <t>infwmn</t>
+  </si>
+  <si>
+    <t>esstrem</t>
+  </si>
+  <si>
+    <t>esstreif</t>
+  </si>
+  <si>
+    <t>brnincte</t>
+  </si>
+  <si>
+    <t>epilep</t>
+  </si>
+  <si>
+    <t>epilepif</t>
+  </si>
+  <si>
+    <t>neopstat</t>
+  </si>
+  <si>
+    <t>hiv</t>
+  </si>
+  <si>
+    <t>hivif</t>
+  </si>
+  <si>
+    <t>othcog</t>
+  </si>
+  <si>
+    <t>othrcogif</t>
+  </si>
+  <si>
+    <t>othcogx</t>
+  </si>
+  <si>
+    <t>deptreat</t>
+  </si>
+  <si>
+    <t>bipoldx</t>
+  </si>
+  <si>
+    <t>bipoldif</t>
+  </si>
+  <si>
+    <t>schizop</t>
+  </si>
+  <si>
+    <t>schizopif</t>
+  </si>
+  <si>
+    <t>anxiet</t>
+  </si>
+  <si>
+    <t>anxietif</t>
+  </si>
+  <si>
+    <t>delir</t>
+  </si>
+  <si>
+    <t>delirif</t>
+  </si>
+  <si>
+    <t>ptsddx</t>
+  </si>
+  <si>
+    <t>ptsddxif</t>
+  </si>
+  <si>
+    <t>otherpsyif</t>
+  </si>
+  <si>
+    <t>othpsyx</t>
+  </si>
+  <si>
+    <t>alcabuse</t>
+  </si>
+  <si>
+    <t>impsub</t>
+  </si>
+  <si>
+    <t>impsubif</t>
+  </si>
+  <si>
+    <t>cogot2</t>
+  </si>
+  <si>
+    <t>ppasyn</t>
+  </si>
+  <si>
+    <t>mciapatt</t>
+  </si>
+  <si>
+    <t>tpetftld</t>
+  </si>
+  <si>
+    <t>infwmh</t>
+  </si>
+  <si>
+    <t>othcogif</t>
+  </si>
+  <si>
+    <t>schizoif</t>
+  </si>
+  <si>
+    <t>ivp_d1_complete</t>
+  </si>
+  <si>
+    <t>This field was missed in UDS 3 Archive (u3a).</t>
+  </si>
+  <si>
+    <t>ivp_d1</t>
   </si>
 </sst>
 </file>
@@ -4299,11 +5355,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE876574-F5A4-7C48-BC15-5FEB63248101}">
-  <dimension ref="A1:J1166"/>
+  <dimension ref="A1:J1481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1098" sqref="I1098:I1166"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1384" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1407" sqref="E1407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27113,7 +28169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1153" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="1153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1153" s="3" t="s">
         <v>1278</v>
       </c>
@@ -27133,7 +28189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1154" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="1154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1154" s="3" t="s">
         <v>1281</v>
       </c>
@@ -27153,7 +28209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1155" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="1155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1155" s="3" t="s">
         <v>1282</v>
       </c>
@@ -27173,7 +28229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1156" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="1156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1156" s="3" t="s">
         <v>1283</v>
       </c>
@@ -27193,7 +28249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1157" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="1157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1157" s="3" t="s">
         <v>1284</v>
       </c>
@@ -27213,7 +28269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1158" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="1158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1158" s="3" t="s">
         <v>1287</v>
       </c>
@@ -27233,7 +28289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1159" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="1159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1159" s="3" t="s">
         <v>1288</v>
       </c>
@@ -27253,7 +28309,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1160" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="1160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1160" s="3" t="s">
         <v>1289</v>
       </c>
@@ -27273,7 +28329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1161" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="1161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1161" s="3" t="s">
         <v>1290</v>
       </c>
@@ -27293,7 +28349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1162" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="1162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1162" s="3" t="s">
         <v>1291</v>
       </c>
@@ -27313,7 +28369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1163" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="1163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1163" s="3" t="s">
         <v>1292</v>
       </c>
@@ -27333,7 +28389,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1164" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="1164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1164" s="3" t="s">
         <v>1293</v>
       </c>
@@ -27353,7 +28409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1165" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="1165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1165" s="3" t="s">
         <v>1294</v>
       </c>
@@ -27373,7 +28429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1166" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="1166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E1166" s="3" t="s">
         <v>1295</v>
       </c>
@@ -27385,6 +28441,6390 @@
       </c>
       <c r="I1166" s="3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1167" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B1167" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1167" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D1167" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G1167" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1167" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1168" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1168" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1168" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D1168" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G1168" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1168" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1169" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1169" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1169" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D1169" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G1169" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1169" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1170" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B1170" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1170" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D1170" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G1170" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1170" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1171" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B1171" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1171" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D1171" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G1171" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1171" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1172" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B1172" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1172" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D1172" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G1172" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1172" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1173" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B1173" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1173" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D1173" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G1173" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1173" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1174" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B1174" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1174" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D1174" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G1174" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1174" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1175" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B1175" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1175" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D1175" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G1175" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1175" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1176" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B1176" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1176" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D1176" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1176" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G1176" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1176" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1176" s="3" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1177" s="3" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B1177" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1177" s="3" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D1177" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1177" s="3" t="s">
+        <v>1309</v>
+      </c>
+      <c r="G1177" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1177" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1177" s="3" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1178" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B1178" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1178" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D1178" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1178" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="G1178" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1178" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1178" s="3" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1179" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B1179" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1179" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D1179" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1179" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G1179" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1179" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1179" s="3" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1180" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B1180" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1180" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D1180" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1180" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="G1180" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1180" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1180" s="3" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1181" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B1181" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1181" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D1181" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1181" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G1181" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1181" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1181" s="3" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1182" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B1182" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1182" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D1182" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1182" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="G1182" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1182" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1182" s="3" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1183" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B1183" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1183" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D1183" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1183" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G1183" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1183" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1183" s="3" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1184" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B1184" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1184" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D1184" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1184" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G1184" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1184" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1184" s="3" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1185" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B1185" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1185" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D1185" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1185" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="G1185" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1185" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1185" s="3" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1186" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B1186" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1186" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D1186" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1186" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="G1186" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1186" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1186" s="3" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1187" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B1187" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1187" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D1187" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1187" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F1187" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1187" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1187" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1188" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B1188" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1188" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D1188" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1188" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F1188" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1188" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1188" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1189" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B1189" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1189" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D1189" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1189" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F1189" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1189" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1189" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1190" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B1190" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1190" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D1190" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1190" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="G1190" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1190" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1190" s="3" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1191" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B1191" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1191" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D1191" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1191" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G1191" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1191" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1191" s="3" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1192" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B1192" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1192" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D1192" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1192" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G1192" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1192" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1192" s="3" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1193" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B1193" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1193" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D1193" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1193" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G1193" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1193" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1193" s="3" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1194" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B1194" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1194" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D1194" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1194" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="G1194" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1194" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1194" s="3" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1195" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B1195" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1195" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D1195" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1195" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F1195" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1195" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1195" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1196" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B1196" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1196" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D1196" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G1196" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1196" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1197" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B1197" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1197" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D1197" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G1197" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1197" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1198" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B1198" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1198" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D1198" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G1198" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1198" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1199" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B1199" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1199" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D1199" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G1199" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1199" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1200" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B1200" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1200" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D1200" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1200" s="3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F1200" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1200" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1200" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1201" s="3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B1201" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1201" s="3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D1201" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1201" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F1201" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1201" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1201" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1202" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B1202" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1202" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D1202" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1202" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F1202" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1202" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1202" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1203" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B1203" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1203" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D1203" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1203" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F1203" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1203" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1203" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1204" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B1204" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1204" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D1204" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1204" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F1204" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1204" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1204" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1205" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B1205" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1205" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D1205" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1205" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F1205" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1205" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1205" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1206" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B1206" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1206" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D1206" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1206" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F1206" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1206" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1206" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1207" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1207" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1207" s="3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D1207" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1207" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F1207" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1207" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1207" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1208" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B1208" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1208" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D1208" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G1208" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1208" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1209" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B1209" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1209" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D1209" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1209" t="s">
+        <v>1341</v>
+      </c>
+      <c r="G1209" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1209" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1209" s="3" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1210" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B1210" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1210" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D1210" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1210" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G1210" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1210" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1210" s="3" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1211" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B1211" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1211" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D1211" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1211" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F1211" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1211" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1211" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1212" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B1212" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1212" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D1212" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1212" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F1212" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1212" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1212" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1213" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B1213" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1213" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D1213" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1213" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="G1213" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1213" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1213" s="3" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1214" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B1214" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1214" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D1214" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1214" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F1214" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1214" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1214" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1215" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B1215" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1215" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D1215" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1215" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1215" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1215" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1215" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1216" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B1216" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1216" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D1216" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1216" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F1216" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1216" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1216" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1217" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B1217" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1217" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D1217" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1217" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="F1217" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1217" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1217" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1218" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B1218" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1218" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D1218" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1218" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F1218" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1218" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1218" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1219" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B1219" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1219" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D1219" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1219" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F1219" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1219" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1219" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1220" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B1220" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1220" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D1220" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1220" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F1220" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1220" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1220" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1221" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B1221" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1221" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D1221" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1221" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F1221" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1221" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1221" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1222" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B1222" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1222" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D1222" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1222" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F1222" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1222" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1222" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1223" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B1223" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1223" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D1223" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1223" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F1223" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1223" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1223" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1224" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B1224" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G1224" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1224" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C1225" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D1225" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G1225" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1225" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1225" s="3" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C1226" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D1226" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1226" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F1226" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1226" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1226" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C1227" s="3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D1227" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1227" s="3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F1227" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1227" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1227" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C1228" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D1228" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1228" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F1228" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1228" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1228" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C1229" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D1229" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1229" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F1229" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1229" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1229" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C1230" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D1230" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1230" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F1230" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1230" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1230" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C1231" s="3" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D1231" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1231" s="3" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F1231" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1231" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1231" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C1232" s="3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D1232" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1232" s="3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F1232" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1232" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1232" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1233" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1233" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D1233" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1233" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F1233" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1233" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1233" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1234" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1234" s="3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1234" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1234" s="3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F1234" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1234" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1234" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1235" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1235" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1235" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1235" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F1235" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1235" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1235" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1236" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1236" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D1236" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1236" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F1236" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1236" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1236" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1237" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1237" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D1237" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1237" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F1237" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1237" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1237" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1238" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1238" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D1238" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1238" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F1238" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1238" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1238" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1239" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1239" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D1239" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1239" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F1239" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1239" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1239" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1240" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1240" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D1240" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1240" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F1240" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1240" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1240" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1241" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1241" s="3" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D1241" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1241" s="3" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F1241" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1241" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1241" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1242" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1242" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D1242" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1242" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F1242" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1242" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1242" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1243" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1243" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D1243" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1243" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F1243" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1243" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1243" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1244" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1244" s="3" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D1244" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1244" s="3" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F1244" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1244" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1244" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1245" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1245" s="3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D1245" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1245" s="3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F1245" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1245" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1245" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1246" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1246" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D1246" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1246" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F1246" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1246" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1246" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1247" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1247" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D1247" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1247" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F1247" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1247" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1247" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1248" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1248" s="3" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D1248" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1248" s="3" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F1248" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1248" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1248" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1249" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1249" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D1249" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1249" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F1249" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1249" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1249" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1250" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1250" s="3" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D1250" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1250" s="3" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F1250" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1250" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1250" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1251" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1251" s="3" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D1251" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1251" s="3" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F1251" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1251" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1251" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1252" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1252" s="3" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D1252" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1252" s="3" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F1252" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1252" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1252" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1253" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1253" s="3" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D1253" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1253" s="3" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F1253" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1253" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1253" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1254" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1254" s="3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D1254" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1254" s="3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F1254" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1254" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1254" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1255" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1255" s="3" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D1255" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1255" s="3" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F1255" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1255" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1255" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1256" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1256" s="3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D1256" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1256" s="3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F1256" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1256" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1256" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1257" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1257" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D1257" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1257" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F1257" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1257" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1257" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1258" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1258" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D1258" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1258" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F1258" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1258" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1258" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1259" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1259" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D1259" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1259" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F1259" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1259" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1259" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1260" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1260" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D1260" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1260" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F1260" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1260" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1260" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1261" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1261" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D1261" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1261" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F1261" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1261" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1261" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1262" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1262" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D1262" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1262" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F1262" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1262" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1262" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1263" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1263" s="3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D1263" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1263" s="3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F1263" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1263" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1263" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1264" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1264" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D1264" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1264" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F1264" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1264" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1264" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1265" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1265" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D1265" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1265" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F1265" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1265" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1265" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1266" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1266" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D1266" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1266" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F1266" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1266" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1266" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1267" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1267" s="3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D1267" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1267" s="3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F1267" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1267" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1267" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1268" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1268" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D1268" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1268" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F1268" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1268" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1268" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1269" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1269" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D1269" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1269" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F1269" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1269" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1269" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1270" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1270" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D1270" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1270" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F1270" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1270" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1270" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1271" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1271" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D1271" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1271" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F1271" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1271" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1271" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1272" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1272" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D1272" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G1272" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1272" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1273" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E1273" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F1273" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1273" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1273" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1274" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E1274" s="3" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F1274" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1274" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1274" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1275" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E1275" s="3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F1275" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1275" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1275" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1276" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E1276" s="3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F1276" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1276" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1276" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1277" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E1277" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F1277" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1277" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1277" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1278" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E1278" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F1278" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1278" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1278" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1279" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E1279" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F1279" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1279" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1279" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1280" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E1280" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F1280" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1280" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1280" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E1281" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F1281" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1281" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1281" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E1282" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F1282" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1282" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1282" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E1283" s="3" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F1283" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1283" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1283" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E1284" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F1284" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1284" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1284" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E1285" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F1285" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1285" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1285" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E1286" s="3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F1286" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1286" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1286" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E1287" s="3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F1287" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1287" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1287" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E1288" s="3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F1288" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1288" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1288" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E1289" s="3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F1289" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1289" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1289" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E1290" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F1290" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1290" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1290" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E1291" s="3" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F1291" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1291" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1291" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E1292" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F1292" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1292" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1292" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1293" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B1293" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1293" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D1293" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1293" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1293" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1294" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B1294" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1294" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D1294" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1294" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1294" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1295" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B1295" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1295" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D1295" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1295" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1295" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1296" s="3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B1296" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1296" s="3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D1296" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1296" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1296" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1297" s="3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B1297" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1297" s="3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D1297" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1297" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1297" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1298" s="3" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B1298" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1298" s="3" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D1298" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1298" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1298" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1299" s="3" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B1299" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1299" s="3" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D1299" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1299" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1299" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1300" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B1300" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1300" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D1300" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1300" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1300" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1301" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B1301" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1301" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D1301" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1301" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1301" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1302" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B1302" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1302" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1302" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1303" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B1303" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1303" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D1303" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1303" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F1303" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1303" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1303" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1304" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B1304" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1304" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D1304" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1304" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F1304" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1304" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1304" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1305" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B1305" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1305" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D1305" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1305" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F1305" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1305" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1305" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1306" s="3" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B1306" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1306" s="3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D1306" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1306" s="3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F1306" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1306" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1306" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1307" s="3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B1307" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1307" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1307" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1308" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B1308" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1308" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1308" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1309" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B1309" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1309" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1309" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1310" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B1310" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1310" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1310" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1311" s="3" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B1311" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1311" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1311" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1312" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B1312" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1312" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1312" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1313" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B1313" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1313" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1313" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1314" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B1314" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1314" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1314" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1315" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1315" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1315" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D1315" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1315" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F1315" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1315" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1315" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1316" s="3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B1316" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1316" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1316" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1317" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B1317" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1317" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1317" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1318" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B1318" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1318" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1318" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1319" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B1319" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1319" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1319" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1320" s="3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B1320" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1320" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1320" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1321" s="3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B1321" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1321" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1321" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1322" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B1322" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1322" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1322" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1323" s="3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B1323" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1323" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1323" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1324" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B1324" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1324" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D1324" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1324" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F1324" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1324" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1324" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1325" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B1325" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1325" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1325" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1326" s="3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B1326" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1326" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1326" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1327" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B1327" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1327" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1327" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1328" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B1328" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1328" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1328" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1329" s="3" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B1329" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1329" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1329" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1330" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B1330" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1330" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1330" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1331" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B1331" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1331" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1331" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1332" s="3" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B1332" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1332" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1332" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1333" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B1333" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1333" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D1333" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1333" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F1333" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1333" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1333" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1334" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B1334" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1334" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1334" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1335" s="3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B1335" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1335" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1335" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1336" s="3" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B1336" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1336" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1336" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1337" s="3" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B1337" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1337" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1337" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1338" s="3" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B1338" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1338" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1338" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1339" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B1339" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1339" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1339" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1340" s="3" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B1340" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1340" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1340" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1341" s="3" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B1341" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1341" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1341" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1342" s="3" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B1342" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1342" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1342" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1343" s="3" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B1343" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1343" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1343" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1344" s="3" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B1344" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1344" s="3" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D1344" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1344" s="3" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F1344" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1344" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1344" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1345" s="3" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B1345" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1345" s="3" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D1345" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1345" s="3" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F1345" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1345" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1345" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1346" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B1346" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1346" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1346" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1347" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B1347" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1347" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1347" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1348" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B1348" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1348" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1348" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1349" s="3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B1349" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1349" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1349" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1350" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B1350" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1350" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1350" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1351" s="3" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B1351" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1351" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1351" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1352" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B1352" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1352" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1352" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1353" s="3" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B1353" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1353" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1353" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1354" s="3" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B1354" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1354" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1354" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1355" s="3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B1355" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1355" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1355" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1356" s="3" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B1356" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1356" s="3" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D1356" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1356" s="3" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F1356" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1356" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1356" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1357" s="3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B1357" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1357" s="3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D1357" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1357" s="3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F1357" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1357" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1357" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1358" s="3" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B1358" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1358" s="3" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D1358" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1358" s="3" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F1358" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1358" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1358" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1359" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B1359" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1359" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D1359" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1359" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F1359" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1359" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1359" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1360" s="3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B1360" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1360" s="3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D1360" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1360" s="3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F1360" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1360" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1360" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1361" s="3" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B1361" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1361" s="3" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D1361" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1361" s="3" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F1361" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1361" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1361" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1362" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B1362" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1362" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1362" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1362" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F1362" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1362" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1362" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1363" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B1363" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1363" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1363" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1363" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F1363" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1363" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1363" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1364" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B1364" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1364" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D1364" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1364" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F1364" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1364" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1364" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1365" s="3" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B1365" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1365" s="3" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D1365" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1365" s="3" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F1365" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1365" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1365" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1366" s="3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B1366" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1366" s="3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D1366" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1366" s="3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F1366" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1366" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1366" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1367" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B1367" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1367" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D1367" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1367" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F1367" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1367" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1367" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1368" s="3" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B1368" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1368" s="3" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D1368" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1368" s="3" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F1368" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1368" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1368" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1369" s="3" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B1369" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1369" s="3" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D1369" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1369" s="3" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F1369" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1369" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1369" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1370" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B1370" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1370" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D1370" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1370" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F1370" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1370" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1370" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1371" s="3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B1371" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1371" s="3" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D1371" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1371" s="3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F1371" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1371" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1371" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1372" s="3" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B1372" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1372" s="3" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D1372" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1372" s="3" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F1372" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1372" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1372" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1373" s="3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B1373" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1373" s="3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D1373" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1373" s="3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F1373" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1373" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1373" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1374" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B1374" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1374" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1374" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1375" s="3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B1375" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1375" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1375" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1376" s="3" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B1376" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1376" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1376" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1377" s="3" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B1377" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1377" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1377" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1378" s="3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B1378" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1378" s="3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D1378" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1378" s="3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F1378" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1378" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1378" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1379" s="3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B1379" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1379" s="3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D1379" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1379" s="3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F1379" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1379" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1379" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1380" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B1380" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1380" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D1380" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1380" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F1380" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1380" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1380" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1381" s="3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B1381" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1381" s="3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D1381" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1381" s="3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F1381" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1381" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1381" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1382" s="3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B1382" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1382" s="3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D1382" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1382" s="3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F1382" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1382" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1382" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1383" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B1383" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1383" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D1383" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1383" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F1383" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1383" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1383" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1384" s="3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B1384" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1384" s="3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D1384" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1384" s="3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F1384" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1384" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1384" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1385" s="3" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B1385" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1385" s="3" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D1385" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1385" s="3" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F1385" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1385" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1385" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1386" s="3" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B1386" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1386" s="3" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D1386" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1386" s="3" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F1386" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1386" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1386" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1387" s="3" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B1387" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1387" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D1387" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1387" s="3" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F1387" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1387" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1387" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1388" s="3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B1388" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1388" s="3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D1388" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1388" s="3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="F1388" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1388" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1388" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1389" s="3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B1389" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1389" s="3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D1389" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1389" s="3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F1389" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1389" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1389" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1390" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B1390" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1390" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D1390" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1390" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F1390" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1390" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1390" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1391" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B1391" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1391" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D1391" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1391" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F1391" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1391" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1391" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1392" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B1392" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1392" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D1392" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1392" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F1392" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1392" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1392" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1393" s="3" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B1393" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1393" s="3" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D1393" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1393" s="3" t="s">
+        <v>1648</v>
+      </c>
+      <c r="F1393" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1393" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1393" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C1394" s="3" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D1394" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1394" s="3" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F1394" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1394" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1394" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C1395" s="3" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D1395" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1395" s="3" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F1395" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1395" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1395" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C1396" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D1396" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1396" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F1396" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1396" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1396" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C1397" s="3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D1397" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1397" s="3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F1397" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1397" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1397" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C1398" s="3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D1398" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1398" s="3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F1398" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1398" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1398" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C1399" s="3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D1399" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1399" s="3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F1399" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1399" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1399" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C1400" s="3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D1400" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1400" s="3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F1400" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1400" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1400" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C1401" s="3" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D1401" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1401" s="3" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F1401" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1401" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1401" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C1402" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D1402" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1402" s="3" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F1402" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1402" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1402" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C1403" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D1403" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1403" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F1403" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1403" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1403" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C1404" s="3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D1404" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1404" s="3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F1404" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1404" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1404" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C1405" s="3" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D1405" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1405" s="3" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F1405" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1405" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1405" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C1406" s="3" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D1406" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1406" s="3" t="s">
+        <v>1566</v>
+      </c>
+      <c r="F1406" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1406" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1406" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C1407" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D1407" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1407" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F1407" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1407" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1407" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C1408" s="3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D1408" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1408" s="3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F1408" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1408" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1408" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1409" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1409" s="3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D1409" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1409" s="3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F1409" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1409" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1409" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1410" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1410" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D1410" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1410" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F1410" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1410" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1410" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1411" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1411" s="3" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D1411" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1411" s="3" t="s">
+        <v>1571</v>
+      </c>
+      <c r="F1411" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1411" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1411" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1412" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1412" s="3" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D1412" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1412" s="3" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F1412" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1412" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1412" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1413" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1413" s="3" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D1413" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1413" s="3" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F1413" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1413" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1413" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1414" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1414" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D1414" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1414" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F1414" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1414" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1414" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1415" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1415" s="3" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D1415" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1415" s="3" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F1415" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1415" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1415" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1416" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1416" s="3" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D1416" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1416" s="3" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F1416" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1416" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1416" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1417" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1417" s="3" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D1417" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1417" s="3" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F1417" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1417" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1417" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1418" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1418" s="3" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D1418" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1418" s="3" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F1418" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1418" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1418" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1419" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1419" s="3" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D1419" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1419" s="3" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F1419" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1419" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1419" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1420" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1420" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D1420" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1420" s="3" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F1420" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1420" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1420" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1421" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1421" s="3" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D1421" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1421" s="3" t="s">
+        <v>1581</v>
+      </c>
+      <c r="F1421" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1421" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1421" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1422" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1422" s="3" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D1422" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1422" s="3" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F1422" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1422" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1422" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1423" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1423" s="3" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D1423" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1423" s="3" t="s">
+        <v>1583</v>
+      </c>
+      <c r="F1423" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1423" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1423" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1424" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1424" s="3" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D1424" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1424" s="3" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F1424" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1424" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1424" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1425" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1425" s="3" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D1425" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1425" s="3" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F1425" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1425" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1425" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1426" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1426" s="3" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D1426" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1426" s="3" t="s">
+        <v>1586</v>
+      </c>
+      <c r="F1426" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1426" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1426" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1427" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1427" s="3" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D1427" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1427" s="3" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F1427" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1427" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1427" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1428" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1428" s="3" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D1428" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1428" s="3" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F1428" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1428" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1428" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1429" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1429" s="3" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D1429" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1429" s="3" t="s">
+        <v>1589</v>
+      </c>
+      <c r="F1429" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1429" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1429" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1430" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1430" s="3" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D1430" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1430" s="3" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F1430" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1430" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1430" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1431" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1431" s="3" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D1431" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1431" s="3" t="s">
+        <v>1591</v>
+      </c>
+      <c r="F1431" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1431" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1431" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1432" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1432" s="3" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D1432" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1432" s="3" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F1432" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1432" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1432" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1433" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1433" s="3" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D1433" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1433" s="3" t="s">
+        <v>1593</v>
+      </c>
+      <c r="F1433" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1433" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1433" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1434" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1434" s="3" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D1434" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1434" s="3" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F1434" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1434" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1434" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1435" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1435" s="3" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D1435" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1435" s="3" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F1435" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1435" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1435" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1436" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1436" s="3" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D1436" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1436" s="3" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F1436" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1436" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1436" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1437" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1437" s="3" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D1437" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1437" s="3" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1437" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1437" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1437" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1438" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1438" s="3" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D1438" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1438" s="3" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F1438" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1438" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1438" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1439" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1439" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D1439" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1439" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F1439" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1439" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1439" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1440" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1440" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D1440" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1440" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="F1440" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1440" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1440" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1441" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1441" s="3" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D1441" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1441" s="3" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F1441" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1441" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1441" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1442" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1442" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D1442" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1442" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F1442" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1442" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1442" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1443" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1443" s="3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D1443" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1443" s="3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F1443" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1443" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1443" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1444" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1444" s="3" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D1444" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1444" s="3" t="s">
+        <v>1603</v>
+      </c>
+      <c r="F1444" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1444" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1444" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1445" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1445" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D1445" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1445" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F1445" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1445" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1445" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1446" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1446" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D1446" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1446" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="F1446" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1446" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1446" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1447" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1447" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D1447" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1447" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F1447" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1447" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1447" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1448" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1448" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D1448" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1448" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F1448" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1448" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1448" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1449" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1449" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D1449" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1449" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="F1449" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1449" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1449" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1450" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1450" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D1450" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1450" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F1450" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1450" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1450" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1451" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1451" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D1451" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1451" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F1451" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1451" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1451" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1452" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1452" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D1452" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1452" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F1452" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1452" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1452" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1453" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1453" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D1453" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1453" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="F1453" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1453" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1453" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1454" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1454" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D1454" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1454" s="3" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F1454" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1454" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1454" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1455" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1455" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D1455" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1455" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F1455" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1455" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1455" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1456" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1456" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D1456" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1456" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F1456" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1456" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1456" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1457" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1457" s="3" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D1457" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1457" s="3" t="s">
+        <v>1616</v>
+      </c>
+      <c r="F1457" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1457" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1457" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1458" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1458" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D1458" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1458" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="F1458" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1458" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1458" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1459" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1459" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D1459" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1459" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="F1459" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1459" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1459" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1460" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1460" s="3" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D1460" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1460" s="3" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F1460" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1460" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1460" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1461" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1461" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D1461" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1461" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F1461" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1461" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1461" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1462" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1462" s="3" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D1462" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1462" s="3" t="s">
+        <v>1621</v>
+      </c>
+      <c r="F1462" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1462" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1462" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1463" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1463" s="3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D1463" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1463" s="3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F1463" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1463" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1463" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1464" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1464" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D1464" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1464" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F1464" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1464" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1464" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1465" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1465" s="3" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D1465" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1465" s="3" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F1465" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1465" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1465" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1466" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1466" s="3" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D1466" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1466" s="3" t="s">
+        <v>1625</v>
+      </c>
+      <c r="F1466" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1466" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1466" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1467" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1467" s="3" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D1467" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1467" s="3" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F1467" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1467" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1467" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1468" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1468" s="3" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D1468" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1468" s="3" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F1468" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1468" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1468" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1469" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1469" s="3" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D1469" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1469" s="3" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F1469" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1469" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1469" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1470" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1470" s="3" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D1470" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1470" s="3" t="s">
+        <v>1647</v>
+      </c>
+      <c r="F1470" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1470" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1470" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1471" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1471" s="3" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D1471" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1471" s="3" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F1471" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1471" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1471" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1472" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1472" s="3" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D1472" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1472" s="3" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F1472" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1472" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1472" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1473" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C1473" s="3" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D1473" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1473" s="3" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F1473" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1473" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1473" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1474" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C1474" s="3" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D1474" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1474" s="3" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F1474" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1474" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1474" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1475" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C1475" s="3" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D1475" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1475" s="3" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F1475" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1475" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1475" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1476" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C1476" s="3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D1476" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1476" s="3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1476" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1476" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1476" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1477" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C1477" s="3" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D1477" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1477" s="3" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F1477" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1477" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1477" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1478" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C1478" s="3" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D1478" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1478" s="3" t="s">
+        <v>1638</v>
+      </c>
+      <c r="F1478" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1478" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1478" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1479" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C1479" s="3" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D1479" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1479" s="3" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F1479" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1479" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1479" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1480" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C1480" s="3" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D1480" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E1480" s="3" t="s">
+        <v>1640</v>
+      </c>
+      <c r="F1480" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1480" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1480" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1481" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="E1481" s="3" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F1481" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G1481" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1481" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1481" s="3" t="s">
+        <v>1649</v>
       </c>
     </row>
   </sheetData>
